--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D67433F-A42D-204C-9A26-A31314B41AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04758C44-1DDD-A74C-96B4-540FB39FE216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3689,7 +3689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
@@ -3897,7 +3897,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="I4:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -5541,13 +5541,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7277,1518 +7277,6 @@
         <v>-22280</v>
       </c>
       <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6"/>
-      <c r="T118" s="6"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="6"/>
-      <c r="T121" s="6"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04758C44-1DDD-A74C-96B4-540FB39FE216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2560B-891D-A241-83E0-032947F403ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="16180" yWindow="-21100" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -24,14 +24,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Inv Portfolio'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Inv Portfolio'!$A$1:$G$19</definedName>
     <definedName name="demo3" localSheetId="2">I_TransRecord!#REF!</definedName>
     <definedName name="demo3_1" localSheetId="2">I_TransRecord!#REF!</definedName>
     <definedName name="demo3_2" localSheetId="2">I_TransRecord!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="219">
   <si>
     <t>name</t>
   </si>
@@ -609,12 +609,6 @@
     <t>德国30</t>
   </si>
   <si>
-    <t>2月10日</t>
-  </si>
-  <si>
-    <t>2月22日发起赎回</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
@@ -648,9 +642,6 @@
     <t>白鹭</t>
   </si>
   <si>
-    <t>华泰红利-&gt;股票账号</t>
-  </si>
-  <si>
     <t>2月24日</t>
   </si>
   <si>
@@ -660,9 +651,6 @@
     <t>盈余</t>
   </si>
   <si>
-    <t>招行余额</t>
-  </si>
-  <si>
     <t>TODO：还需赎回</t>
   </si>
   <si>
@@ -712,6 +700,30 @@
   </si>
   <si>
     <t>海外股票</t>
+  </si>
+  <si>
+    <t>SH512910</t>
+  </si>
+  <si>
+    <t>华泰账号</t>
+  </si>
+  <si>
+    <t>基金-&gt;余额宝</t>
+  </si>
+  <si>
+    <t>余额宝-&gt;农业银行</t>
+  </si>
+  <si>
+    <t>基金-&gt;招商银行</t>
+  </si>
+  <si>
+    <t>2月23日</t>
+  </si>
+  <si>
+    <t>贝贝zz500-&gt;余额宝</t>
+  </si>
+  <si>
+    <t>幻方量化专享71号1期</t>
   </si>
 </sst>
 </file>
@@ -3689,215 +3701,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="13">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="8">
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="9">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="I4:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -4040,7 +3844,7 @@
     <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4226,13 +4030,221 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="8">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="9">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="demo3_2" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F48" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F48" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F49" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A1:F49" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}">
     <filterColumn colId="5">
       <filters>
         <filter val="Y"/>
@@ -4577,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4608,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -4628,7 +4640,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4708,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,7 +4760,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4802,7 +4814,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -4822,13 +4834,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4922,13 +4934,13 @@
         <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4988,7 +5000,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5048,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5088,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5148,7 +5160,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5302,7 +5314,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
@@ -5490,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5513,11 +5525,11 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>68</v>
@@ -5526,6 +5538,24 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5541,13 +5571,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD208"/>
+      <selection pane="bottomRight" activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7278,6 +7308,80 @@
       </c>
       <c r="T50" s="6"/>
     </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="Z51" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>20210223</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6">
+        <v>-868.90499999999997</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="V52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="W52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>4860.5050000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7286,10 +7390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7675,6 +7779,57 @@
         <v>10.17</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20210223</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D23">
+        <v>-478200</v>
+      </c>
+      <c r="E23">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>20210223</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>1.629</v>
+      </c>
+      <c r="D24">
+        <v>183700</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>20210223</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25">
+        <v>1.63</v>
+      </c>
+      <c r="D25">
+        <v>20200</v>
+      </c>
+      <c r="E25">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{0E31B935-EB50-994C-9DD3-A0B1FA61E017}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7685,10 +7840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAE2D-3DCE-7B45-897E-699A664705C0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7699,16 +7854,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7716,12 +7871,26 @@
         <v>20210219</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20210222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13">
         <v>1000000</v>
       </c>
     </row>
@@ -8123,7 +8292,7 @@
         <v>7237885.4300000006</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J13" s="13">
         <v>631972.61</v>
@@ -8467,7 +8636,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>12</v>
@@ -8639,7 +8808,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>12</v>
@@ -8909,7 +9078,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>12</v>
@@ -9284,7 +9453,7 @@
         <v>144</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F59" s="37" t="s">
         <v>12</v>
@@ -9353,7 +9522,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F62" s="37" t="s">
         <v>12</v>
@@ -9836,7 +10005,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>12</v>
@@ -9859,7 +10028,7 @@
         <v>28</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>12</v>
@@ -10095,7 +10264,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10112,24 +10281,24 @@
         <v>104</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D1" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>209</v>
-      </c>
       <c r="G1" s="45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>161</v>
@@ -10141,25 +10310,25 @@
         <v>100</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F2" s="43">
         <v>0.2</v>
       </c>
       <c r="G2" s="36">
         <f t="shared" ref="G2:G8" si="0">F2*D2/$D$19</f>
-        <v>2.2222222222222223E-2</v>
+        <v>2.4096385542168676E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -10170,12 +10339,12 @@
       </c>
       <c r="G3" s="36">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223E-2</v>
+        <v>2.4096385542168676E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>160</v>
@@ -10187,43 +10356,43 @@
         <v>10</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F4" s="43">
         <v>0.15</v>
       </c>
       <c r="G4" s="36">
         <f t="shared" si="0"/>
-        <v>1.6666666666666668E-3</v>
+        <v>1.8072289156626507E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F5" s="43">
         <v>0.15</v>
       </c>
       <c r="G5" s="36">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
+        <v>4.5180722891566263E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>160</v>
@@ -10235,14 +10404,14 @@
         <v>30</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" s="43">
         <v>0.15</v>
       </c>
       <c r="G6" s="36">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>5.4216867469879517E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -10253,20 +10422,20 @@
         <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F7" s="43">
         <v>0.15</v>
       </c>
       <c r="G7" s="36">
         <f t="shared" si="0"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10280,17 +10449,17 @@
         <v>150</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F8" s="43">
         <v>0.12</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
+        <v>5.7831325301204821E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -10304,17 +10473,17 @@
         <v>151</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F9" s="43">
         <v>0.12</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" ref="G9:G15" si="1">F9*D9/$D$19</f>
-        <v>4.6666666666666671E-3</v>
+        <v>4.3373493975903607E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -10328,17 +10497,17 @@
         <v>163</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F10" s="43">
         <v>0.12</v>
       </c>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>1.9999999999999996E-3</v>
+        <v>1.4457831325301205E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -10349,10 +10518,10 @@
         <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="43">
@@ -10360,7 +10529,7 @@
       </c>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>2.6666666666666666E-3</v>
+        <v>1.4457831325301205E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -10377,14 +10546,14 @@
         <v>30</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F12" s="43">
         <v>0.12</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>3.9999999999999992E-3</v>
+        <v>4.3373493975903607E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10398,17 +10567,17 @@
         <v>152</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="43">
         <v>0.12</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
+        <v>2.891566265060241E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -10425,14 +10594,14 @@
         <v>30</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F14" s="43">
         <v>0.12</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>3.9999999999999992E-3</v>
+        <v>4.3373493975903607E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -10443,31 +10612,31 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15">
         <v>45</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F15" s="43">
         <v>0.12</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>5.9999999999999993E-3</v>
+        <v>6.5060240963855419E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -10478,68 +10647,68 @@
       </c>
       <c r="G16" s="36">
         <f>F16*D16/$D$19</f>
-        <v>1.3333333333333334E-2</v>
+        <v>1.4457831325301205E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
         <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F17" s="43">
         <v>0.12</v>
       </c>
       <c r="G17" s="36">
         <f>F17*D17/$D$19</f>
-        <v>1.3333333333333334E-2</v>
+        <v>1.4457831325301205E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F18" s="43">
         <v>0.2</v>
       </c>
       <c r="G18" s="36">
         <f>F18*D18/$D$19</f>
-        <v>1.5555555555555555E-2</v>
+        <v>1.2048192771084338E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="G19" s="36">
         <f>SUM(G2:G18)</f>
-        <v>0.15</v>
+        <v>0.15006024096385545</v>
       </c>
     </row>
   </sheetData>
@@ -10550,10 +10719,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2989BAFD-19FB-E141-9A83-945226CC54F4}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A3" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10717,64 +10886,96 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13">
-        <v>361914</v>
+        <f>81275+54170+28359+41897+22280*4.3+20094*2.33</f>
+        <v>348324.02</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B14" s="13">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B15" s="13">
-        <v>423179</v>
+        <v>539871</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B16" s="13">
-        <v>135989</v>
+        <v>140000</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B17" s="13">
-        <f>2050000-SUM(B13:B16)</f>
-        <v>1057918</v>
+        <v>345000</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="13">
+        <v>71000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="13">
+        <f>584859</f>
+        <v>584859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="13">
+        <f>2050000-SUM(B13:B19)</f>
+        <v>20945.979999999981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10805,10 +11006,10 @@
         <v>107</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10848,7 +11049,7 @@
         <v>59656.892857142877</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -10873,7 +11074,7 @@
         <v>40633.773722627746</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -10898,7 +11099,7 @@
         <v>22280.728285077945</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -10938,7 +11139,7 @@
         <v>10845.977386934672</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10963,7 +11164,7 @@
         <v>29560.041666666682</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2560B-891D-A241-83E0-032947F403ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB6195-4D7B-084B-96A4-7E752A830F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="-21100" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="16540" yWindow="-21080" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -19,8 +19,6 @@
     <sheet name="P_TransRecord" sheetId="19" r:id="rId4"/>
     <sheet name="MonthlyReport" sheetId="7" r:id="rId5"/>
     <sheet name="Inv Portfolio" sheetId="21" r:id="rId6"/>
-    <sheet name="资金归集" sheetId="18" r:id="rId7"/>
-    <sheet name="Sheet1 (2)" sheetId="20" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$13</definedName>
@@ -31,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="189">
   <si>
     <t>name</t>
   </si>
@@ -387,12 +385,6 @@
     <t>现值</t>
   </si>
   <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金现值</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -537,15 +529,6 @@
     <t>中欧价值发现</t>
   </si>
   <si>
-    <t>兴全可转债</t>
-  </si>
-  <si>
-    <t>易方达安心回报</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
     <t>易方达蓝筹</t>
   </si>
   <si>
@@ -570,57 +553,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>2月18日</t>
-  </si>
-  <si>
-    <t>预计到账日期</t>
-  </si>
-  <si>
-    <t>卖出份额</t>
-  </si>
-  <si>
-    <t>确认净值</t>
-  </si>
-  <si>
-    <t>到账地点</t>
-  </si>
-  <si>
-    <t>到账金额</t>
-  </si>
-  <si>
-    <t>2月8日</t>
-  </si>
-  <si>
-    <t>蚂蚁德国</t>
-  </si>
-  <si>
-    <t>2月25日</t>
-  </si>
-  <si>
-    <t>余额宝</t>
-  </si>
-  <si>
-    <t>2月9日</t>
-  </si>
-  <si>
-    <t>建信理财家</t>
-  </si>
-  <si>
-    <t>德国30</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>德国基金-&gt;招行</t>
-  </si>
-  <si>
-    <t>2月25日购买幻方中证500、进化论</t>
-  </si>
-  <si>
     <t>投资项目</t>
   </si>
   <si>
@@ -642,18 +580,6 @@
     <t>白鹭</t>
   </si>
   <si>
-    <t>2月24日</t>
-  </si>
-  <si>
-    <t>目标金额</t>
-  </si>
-  <si>
-    <t>盈余</t>
-  </si>
-  <si>
-    <t>TODO：还需赎回</t>
-  </si>
-  <si>
     <t>主观多头</t>
   </si>
   <si>
@@ -703,24 +629,6 @@
   </si>
   <si>
     <t>SH512910</t>
-  </si>
-  <si>
-    <t>华泰账号</t>
-  </si>
-  <si>
-    <t>基金-&gt;余额宝</t>
-  </si>
-  <si>
-    <t>余额宝-&gt;农业银行</t>
-  </si>
-  <si>
-    <t>基金-&gt;招商银行</t>
-  </si>
-  <si>
-    <t>2月23日</t>
-  </si>
-  <si>
-    <t>贝贝zz500-&gt;余额宝</t>
   </si>
   <si>
     <t>幻方量化专享71号1期</t>
@@ -736,7 +644,7 @@
     <numFmt numFmtId="166" formatCode="yyyy/mm"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,12 +689,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -813,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -928,21 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -966,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1015,18 +902,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3701,7 +3582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="I4:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -4031,7 +3912,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
@@ -4244,13 +4125,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F49" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F49" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F49" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AEA82409-3F03-C840-82D3-87540F5B9778}" name="name" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{251F1083-A37F-3444-A6D7-BC9FACE5C50E}" name="code" dataDxfId="20"/>
@@ -4591,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4620,10 +4495,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4515,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4660,10 +4535,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -4680,7 +4555,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4700,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -4720,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4740,10 +4615,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -4760,7 +4635,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4780,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4800,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4814,16 +4689,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -4834,13 +4709,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4860,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4880,15 +4755,15 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -4900,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4920,10 +4795,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -4934,13 +4809,13 @@
         <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,10 +4855,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
@@ -5000,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5020,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,10 +4915,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -5060,12 +4935,12 @@
         <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
@@ -5080,10 +4955,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -5100,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5120,7 +4995,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,10 +5015,10 @@
         <v>12</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
@@ -5160,7 +5035,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5180,15 +5055,15 @@
         <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>7</v>
@@ -5200,15 +5075,15 @@
         <v>75</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -5220,15 +5095,15 @@
         <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>7</v>
@@ -5240,15 +5115,15 @@
         <v>75</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
@@ -5260,15 +5135,15 @@
         <v>75</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
@@ -5280,15 +5155,15 @@
         <v>75</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -5300,35 +5175,35 @@
         <v>75</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -5340,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5358,7 +5233,7 @@
         <v>56</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5376,7 +5251,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5394,7 +5269,7 @@
         <v>56</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -5412,7 +5287,7 @@
         <v>63</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -5430,7 +5305,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -5448,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -5466,7 +5341,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -5484,10 +5359,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -5502,16 +5377,16 @@
         <v>75</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>75</v>
@@ -5520,16 +5395,16 @@
         <v>75</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>68</v>
@@ -5538,12 +5413,12 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
@@ -5556,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5574,10 +5449,10 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X55" sqref="X55"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5638,7 +5513,7 @@
         <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>33</v>
@@ -5662,25 +5537,25 @@
         <v>53</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="X1" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="Y1" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>133</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -5718,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>32</v>
@@ -5742,25 +5617,25 @@
         <v>52</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U2" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="Y2" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>137</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -7314,7 +7189,9 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -7343,7 +7220,9 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <v>14987.205</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -7699,7 +7578,7 @@
         <v>20210127</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18">
         <v>0.746</v>
@@ -7716,7 +7595,7 @@
         <v>20210127</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>0.753</v>
@@ -7784,7 +7663,7 @@
         <v>20210223</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23">
         <v>0.69499999999999995</v>
@@ -7801,7 +7680,7 @@
         <v>20210223</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C24">
         <v>1.629</v>
@@ -7818,7 +7697,7 @@
         <v>20210223</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C25">
         <v>1.63</v>
@@ -7854,16 +7733,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7871,10 +7750,10 @@
         <v>20210219</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D2" s="13">
         <v>1000000</v>
@@ -7885,7 +7764,7 @@
         <v>20210222</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -7973,10 +7852,10 @@
         <v>105</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K1"/>
     </row>
@@ -7996,7 +7875,7 @@
         <v>99</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -8025,10 +7904,10 @@
         <v>4315937.05</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -8044,7 +7923,7 @@
         <v>4480243.3099999996</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -8068,7 +7947,7 @@
         <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -8292,7 +8171,7 @@
         <v>7237885.4300000006</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J13" s="13">
         <v>631972.61</v>
@@ -8320,7 +8199,7 @@
         <v>7764298.0251120012</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J14" s="13">
         <v>6561315.0300000003</v>
@@ -8386,10 +8265,10 @@
         <v>9008171.4100000001</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
         <v>108</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8397,7 +8276,7 @@
         <v>44166</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>16</v>
@@ -8415,7 +8294,7 @@
         <v>743825.95</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -8424,7 +8303,7 @@
         <v>44166</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>29</v>
@@ -8442,7 +8321,7 @@
         <v>702621.55</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J19" s="13">
         <v>4520157.8100000005</v>
@@ -8453,7 +8332,7 @@
         <v>44166</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>21</v>
@@ -8471,7 +8350,7 @@
         <v>646521.43000000005</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" s="13">
         <v>4375849.79</v>
@@ -8482,7 +8361,7 @@
         <v>44166</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>10</v>
@@ -8500,7 +8379,7 @@
         <v>623026.43000000005</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J21" s="13">
         <v>4315937.05</v>
@@ -8511,7 +8390,7 @@
         <v>44166</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>19</v>
@@ -8529,7 +8408,7 @@
         <v>464895.32</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J22" s="13">
         <v>4480243.3099999996</v>
@@ -8540,7 +8419,7 @@
         <v>44166</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>42</v>
@@ -8558,7 +8437,7 @@
         <v>347075.22</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" s="13">
         <v>5038832.72</v>
@@ -8569,7 +8448,7 @@
         <v>44166</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>52</v>
@@ -8587,7 +8466,7 @@
         <v>346572.76</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" s="13">
         <v>5082338.07</v>
@@ -8598,7 +8477,7 @@
         <v>44166</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>40</v>
@@ -8616,7 +8495,7 @@
         <v>282231.06</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J25" s="13">
         <v>5137453.5599999996</v>
@@ -8627,7 +8506,7 @@
         <v>44166</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>25</v>
@@ -8636,7 +8515,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>12</v>
@@ -8645,7 +8524,7 @@
         <v>272661.15000000002</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J26" s="13">
         <v>5501908.3899999997</v>
@@ -8656,7 +8535,7 @@
         <v>44166</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>44</v>
@@ -8674,7 +8553,7 @@
         <v>266543.56</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J27" s="13"/>
     </row>
@@ -8683,7 +8562,7 @@
         <v>44166</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>32</v>
@@ -8701,7 +8580,7 @@
         <v>259049.76</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J28" s="13">
         <v>5235010.3900000006</v>
@@ -8712,7 +8591,7 @@
         <v>44166</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>23</v>
@@ -8730,7 +8609,7 @@
         <v>244909.91</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J29" s="13">
         <v>5537386.25</v>
@@ -8741,7 +8620,7 @@
         <v>44166</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>96</v>
@@ -8759,7 +8638,7 @@
         <v>242566.8</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J30" s="13">
         <v>6395014.0300000003</v>
@@ -8770,7 +8649,7 @@
         <v>44166</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>5</v>
@@ -8788,7 +8667,7 @@
         <v>210758.38</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J31" s="13">
         <v>7237885.4300000006</v>
@@ -8799,7 +8678,7 @@
         <v>44166</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>91</v>
@@ -8808,7 +8687,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>12</v>
@@ -8817,7 +8696,7 @@
         <v>208644.8</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J32" s="13">
         <v>7764298.0251120012</v>
@@ -8828,7 +8707,7 @@
         <v>44166</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>95</v>
@@ -8846,7 +8725,7 @@
         <v>165378.6</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J33" s="13">
         <v>8607592.6799999997</v>
@@ -8857,13 +8736,13 @@
         <v>44166</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>8</v>
@@ -8875,7 +8754,7 @@
         <v>126161.67</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J34" s="13">
         <v>8950012.6800000016</v>
@@ -8886,7 +8765,7 @@
         <v>44166</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>94</v>
@@ -8904,7 +8783,7 @@
         <v>95574.2</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J35" s="13">
         <v>9008171.4100000001</v>
@@ -8915,7 +8794,7 @@
         <v>44166</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>98</v>
@@ -8933,7 +8812,7 @@
         <v>87391.62</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J36" s="13">
         <v>9273470.589999998</v>
@@ -8944,7 +8823,7 @@
         <v>44166</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>93</v>
@@ -8962,7 +8841,7 @@
         <v>82935</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J37" s="10"/>
     </row>
@@ -8971,10 +8850,10 @@
         <v>44166</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>47</v>
@@ -8989,7 +8868,7 @@
         <v>77581.960000000006</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J38" s="13">
         <v>9434555.0800000001</v>
@@ -9000,7 +8879,7 @@
         <v>44166</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>37</v>
@@ -9023,7 +8902,7 @@
         <v>44166</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>92</v>
@@ -9046,7 +8925,7 @@
         <v>44166</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>97</v>
@@ -9069,7 +8948,7 @@
         <v>44166</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>27</v>
@@ -9078,7 +8957,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>12</v>
@@ -9092,7 +8971,7 @@
         <v>44166</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>54</v>
@@ -9114,7 +8993,7 @@
         <v>44166</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>57</v>
@@ -9135,7 +9014,7 @@
         <v>44166</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>58</v>
@@ -9157,7 +9036,7 @@
         <v>44166</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>60</v>
@@ -9178,7 +9057,7 @@
         <v>44166</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>64</v>
@@ -9199,7 +9078,7 @@
         <v>44166</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>67</v>
@@ -9220,7 +9099,7 @@
         <v>44166</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>69</v>
@@ -9241,7 +9120,7 @@
         <v>44166</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>72</v>
@@ -9262,7 +9141,7 @@
         <v>44166</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>74</v>
@@ -9283,7 +9162,7 @@
         <v>44197</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>16</v>
@@ -9306,7 +9185,7 @@
         <v>44197</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>29</v>
@@ -9329,7 +9208,7 @@
         <v>44197</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>21</v>
@@ -9352,7 +9231,7 @@
         <v>44197</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>10</v>
@@ -9375,7 +9254,7 @@
         <v>44197</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>19</v>
@@ -9398,7 +9277,7 @@
         <v>44197</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>52</v>
@@ -9421,7 +9300,7 @@
         <v>44197</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>42</v>
@@ -9444,16 +9323,16 @@
         <v>44197</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F59" s="37" t="s">
         <v>12</v>
@@ -9467,7 +9346,7 @@
         <v>44197</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>96</v>
@@ -9490,7 +9369,7 @@
         <v>44197</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>23</v>
@@ -9513,7 +9392,7 @@
         <v>44197</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>25</v>
@@ -9522,7 +9401,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F62" s="37" t="s">
         <v>12</v>
@@ -9536,7 +9415,7 @@
         <v>44197</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>40</v>
@@ -9559,7 +9438,7 @@
         <v>44197</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>44</v>
@@ -9582,7 +9461,7 @@
         <v>44197</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>5</v>
@@ -9605,7 +9484,7 @@
         <v>44197</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>32</v>
@@ -9628,7 +9507,7 @@
         <v>44197</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>95</v>
@@ -9651,13 +9530,13 @@
         <v>44197</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>8</v>
@@ -9674,7 +9553,7 @@
         <v>44197</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>94</v>
@@ -9697,7 +9576,7 @@
         <v>44197</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>93</v>
@@ -9720,7 +9599,7 @@
         <v>44197</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>98</v>
@@ -9743,10 +9622,10 @@
         <v>44197</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>47</v>
@@ -9766,7 +9645,7 @@
         <v>44197</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>37</v>
@@ -9789,7 +9668,7 @@
         <v>44197</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>92</v>
@@ -9812,13 +9691,13 @@
         <v>44197</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>8</v>
@@ -9835,7 +9714,7 @@
         <v>44197</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>97</v>
@@ -9858,13 +9737,13 @@
         <v>44197</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>8</v>
@@ -9881,13 +9760,13 @@
         <v>44197</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>8</v>
@@ -9904,13 +9783,13 @@
         <v>44197</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E79" s="37" t="s">
         <v>8</v>
@@ -9927,13 +9806,13 @@
         <v>44197</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>8</v>
@@ -9950,13 +9829,13 @@
         <v>44197</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="37" t="s">
         <v>8</v>
@@ -9973,13 +9852,13 @@
         <v>44197</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>8</v>
@@ -9996,7 +9875,7 @@
         <v>44197</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>91</v>
@@ -10005,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>12</v>
@@ -10019,7 +9898,7 @@
         <v>44197</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>27</v>
@@ -10028,7 +9907,7 @@
         <v>28</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>12</v>
@@ -10042,7 +9921,7 @@
         <v>44197</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>54</v>
@@ -10064,7 +9943,7 @@
         <v>44197</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>57</v>
@@ -10085,7 +9964,7 @@
         <v>44197</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>58</v>
@@ -10107,7 +9986,7 @@
         <v>44197</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>60</v>
@@ -10128,7 +10007,7 @@
         <v>44197</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>64</v>
@@ -10149,7 +10028,7 @@
         <v>44197</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>67</v>
@@ -10170,7 +10049,7 @@
         <v>44197</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>69</v>
@@ -10191,7 +10070,7 @@
         <v>44197</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>72</v>
@@ -10212,7 +10091,7 @@
         <v>44197</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>74</v>
@@ -10233,10 +10112,10 @@
         <v>44197</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="s">
@@ -10274,45 +10153,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>205</v>
+      <c r="C1" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="43">
+      <c r="E2" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="41">
         <v>0.2</v>
       </c>
       <c r="G2" s="36">
@@ -10322,19 +10201,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="43">
+      <c r="E3" s="44"/>
+      <c r="F3" s="41">
         <v>0.2</v>
       </c>
       <c r="G3" s="36">
@@ -10344,21 +10223,21 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="E4" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="41">
         <v>0.15</v>
       </c>
       <c r="G4" s="36">
@@ -10368,21 +10247,21 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="43">
+      <c r="E5" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="41">
         <v>0.15</v>
       </c>
       <c r="G5" s="36">
@@ -10392,21 +10271,21 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="43">
+      <c r="E6" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="41">
         <v>0.15</v>
       </c>
       <c r="G6" s="36">
@@ -10416,21 +10295,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="E7" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="41">
         <v>0.15</v>
       </c>
       <c r="G7" s="36">
@@ -10440,21 +10319,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="43">
+      <c r="E8" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="41">
         <v>0.12</v>
       </c>
       <c r="G8" s="36">
@@ -10464,21 +10343,21 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="43">
+      <c r="E9" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="41">
         <v>0.12</v>
       </c>
       <c r="G9" s="36">
@@ -10488,21 +10367,21 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="43">
+      <c r="E10" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="41">
         <v>0.12</v>
       </c>
       <c r="G10" s="36">
@@ -10512,19 +10391,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="43">
+      <c r="E11" s="44"/>
+      <c r="F11" s="41">
         <v>0.12</v>
       </c>
       <c r="G11" s="36">
@@ -10534,21 +10413,21 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="E12" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="41">
         <v>0.12</v>
       </c>
       <c r="G12" s="36">
@@ -10558,21 +10437,21 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="E13" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="41">
         <v>0.12</v>
       </c>
       <c r="G13" s="36">
@@ -10582,21 +10461,21 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="43">
+      <c r="E14" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="41">
         <v>0.12</v>
       </c>
       <c r="G14" s="36">
@@ -10606,21 +10485,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D15">
         <v>45</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="43">
+      <c r="E15" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="41">
         <v>0.12</v>
       </c>
       <c r="G15" s="36">
@@ -10630,19 +10509,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="43">
+      <c r="E16" s="44"/>
+      <c r="F16" s="41">
         <v>0.12</v>
       </c>
       <c r="G16" s="36">
@@ -10652,21 +10531,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="43">
+      <c r="E17" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="41">
         <v>0.12</v>
       </c>
       <c r="G17" s="36">
@@ -10676,21 +10555,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="43">
+      <c r="E18" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="41">
         <v>0.2</v>
       </c>
       <c r="G18" s="36">
@@ -10699,8 +10578,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="44" t="s">
-        <v>202</v>
+      <c r="C19" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
@@ -10715,600 +10594,4 @@
   <autoFilter ref="A1:G19" xr:uid="{1563D1C6-075A-8245-AF4F-A4FE6C96CE5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2989BAFD-19FB-E141-9A83-945226CC54F4}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="13">
-        <f>SUM(D2:D12)</f>
-        <v>1016138.2900000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2">
-        <v>26300</v>
-      </c>
-      <c r="C2">
-        <v>3.8679999999999999</v>
-      </c>
-      <c r="D2" s="13">
-        <f>B2*C2</f>
-        <v>101728.4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3">
-        <v>224231.13</v>
-      </c>
-      <c r="D3" s="13">
-        <v>215988</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4">
-        <v>10594.71</v>
-      </c>
-      <c r="D4" s="13">
-        <v>260960.19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5">
-        <v>53411.25</v>
-      </c>
-      <c r="D5" s="13">
-        <v>71677.899999999994</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="13">
-        <v>250000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7">
-        <v>16800</v>
-      </c>
-      <c r="C7">
-        <v>1.141</v>
-      </c>
-      <c r="D7" s="13">
-        <f>B7*C7</f>
-        <v>19168.8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8">
-        <v>285000</v>
-      </c>
-      <c r="C8">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D8" s="13">
-        <f>B8*C8</f>
-        <v>96615</v>
-      </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="13">
-        <f>81275+54170+28359+41897+22280*4.3+20094*2.33</f>
-        <v>348324.02</v>
-      </c>
-      <c r="C13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="13">
-        <v>539871</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="13">
-        <v>140000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="13">
-        <v>345000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="13">
-        <v>71000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="13">
-        <f>584859</f>
-        <v>584859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="13">
-        <f>2050000-SUM(B13:B19)</f>
-        <v>20945.979999999981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D06FE-9D25-B548-A7C3-1ADF74B969AD}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13">
-        <v>671048.41</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <f t="shared" ref="D2:D17" si="0">B2-C2</f>
-        <v>671048.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13">
-        <v>583519.65</v>
-      </c>
-      <c r="C3" s="13">
-        <v>500000</v>
-      </c>
-      <c r="D3" s="13">
-        <f t="shared" si="0"/>
-        <v>83519.650000000023</v>
-      </c>
-      <c r="E3">
-        <v>1.4</v>
-      </c>
-      <c r="F3">
-        <f>D3/E3</f>
-        <v>59656.892857142877</v>
-      </c>
-      <c r="G3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="13">
-        <v>555668.27</v>
-      </c>
-      <c r="C4" s="13">
-        <v>500000</v>
-      </c>
-      <c r="D4" s="13">
-        <f t="shared" si="0"/>
-        <v>55668.270000000019</v>
-      </c>
-      <c r="E4">
-        <v>1.37</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F8" si="1">D4/E4</f>
-        <v>40633.773722627746</v>
-      </c>
-      <c r="G4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="13">
-        <v>400040.47</v>
-      </c>
-      <c r="C5" s="13">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" si="0"/>
-        <v>100040.46999999997</v>
-      </c>
-      <c r="E5">
-        <v>4.49</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>22280.728285077945</v>
-      </c>
-      <c r="G5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="13">
-        <v>363432</v>
-      </c>
-      <c r="C6" s="13">
-        <v>363432</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13">
-        <v>343166.99</v>
-      </c>
-      <c r="C7" s="13">
-        <v>300000</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>43166.989999999991</v>
-      </c>
-      <c r="E7">
-        <v>3.98</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>10845.977386934672</v>
-      </c>
-      <c r="G7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13">
-        <v>328377.64</v>
-      </c>
-      <c r="C8" s="13">
-        <v>300000</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>28377.640000000014</v>
-      </c>
-      <c r="E8">
-        <v>0.96</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>29560.041666666682</v>
-      </c>
-      <c r="G8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13">
-        <v>312709.03000000003</v>
-      </c>
-      <c r="C9" s="13">
-        <v>312709.03000000003</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="13">
-        <v>309271.2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>309271.2</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13">
-        <v>303666.40999999997</v>
-      </c>
-      <c r="C11" s="13">
-        <v>303666.40999999997</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="13">
-        <v>296012.36</v>
-      </c>
-      <c r="C12" s="13">
-        <v>296012.36</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="13">
-        <v>177268.71</v>
-      </c>
-      <c r="C13" s="13">
-        <v>177268.71</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="13">
-        <v>140594.79999999999</v>
-      </c>
-      <c r="C14" s="13">
-        <v>140594.79999999999</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="13">
-        <v>128901.34</v>
-      </c>
-      <c r="C15" s="13">
-        <v>128901.34</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="13">
-        <v>72809.7</v>
-      </c>
-      <c r="C16" s="13">
-        <v>72809.7</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="13">
-        <v>68087.539999999994</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="0"/>
-        <v>68087.539999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="13">
-        <f>SUM(D2:D17)</f>
-        <v>1049908.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB6195-4D7B-084B-96A4-7E752A830F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AC26F8-960E-6746-9586-BA6F3F2D4BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16540" yWindow="-21080" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="3" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -514,9 +514,6 @@
     <t>红利</t>
   </si>
   <si>
-    <t>医药</t>
-  </si>
-  <si>
     <t>环保</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>进化论</t>
   </si>
   <si>
-    <t>消费</t>
-  </si>
-  <si>
     <t>2021/01/31</t>
   </si>
   <si>
@@ -632,6 +626,21 @@
   </si>
   <si>
     <t>幻方量化专享71号1期</t>
+  </si>
+  <si>
+    <t>医药 - 葛兰</t>
+  </si>
+  <si>
+    <t>消费 - 张坤</t>
+  </si>
+  <si>
+    <t>进化论复合策略一号</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合A</t>
+  </si>
+  <si>
+    <t>003095</t>
   </si>
 </sst>
 </file>
@@ -3582,6 +3591,214 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="8">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="9">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="I4:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
@@ -3725,7 +3942,7 @@
     <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3911,221 +4128,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="14">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="8">
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="9">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="demo3_2" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F49" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F49" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F51" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A1:F51" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AEA82409-3F03-C840-82D3-87540F5B9778}" name="name" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{251F1083-A37F-3444-A6D7-BC9FACE5C50E}" name="code" dataDxfId="20"/>
@@ -4464,10 +4473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4495,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4515,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4535,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4555,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4595,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4615,7 +4624,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4675,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4689,13 +4698,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4709,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4809,13 +4818,13 @@
         <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4855,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4935,7 +4944,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4975,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,7 +5004,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5015,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,7 +5044,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5084,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -5095,7 +5104,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -5115,7 +5124,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -5135,7 +5144,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,7 +5164,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5175,7 +5184,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5189,13 +5198,13 @@
         <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,34 +5224,36 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>56</v>
@@ -5251,16 +5262,16 @@
         <v>56</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>56</v>
@@ -5269,124 +5280,124 @@
         <v>56</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>75</v>
@@ -5400,29 +5411,29 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>68</v>
@@ -5431,7 +5442,43 @@
         <v>12</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5446,13 +5493,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5475,10 +5522,11 @@
     <col min="20" max="20" width="14.1640625" style="1" customWidth="1"/>
     <col min="21" max="25" width="10.83203125" style="1"/>
     <col min="26" max="26" width="12.1640625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5605,11 @@
       <c r="Z1" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -5637,8 +5688,11 @@
       <c r="Z2" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -5717,8 +5771,11 @@
       <c r="Z3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20190331</v>
       </c>
@@ -5772,7 +5829,7 @@
       </c>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20190403</v>
       </c>
@@ -5798,7 +5855,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20190426</v>
       </c>
@@ -5826,7 +5883,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20190515</v>
       </c>
@@ -5855,7 +5912,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20190726</v>
       </c>
@@ -5880,7 +5937,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20190808</v>
       </c>
@@ -5905,7 +5962,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20190829</v>
       </c>
@@ -5929,7 +5986,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20190909</v>
       </c>
@@ -5955,7 +6012,7 @@
       </c>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20190924</v>
       </c>
@@ -5983,7 +6040,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20191112</v>
       </c>
@@ -6007,7 +6064,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20200203</v>
       </c>
@@ -6036,7 +6093,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20200302</v>
       </c>
@@ -6066,7 +6123,7 @@
       </c>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20200309</v>
       </c>
@@ -7114,7 +7171,7 @@
         <v>1990.0050000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>20210219</v>
       </c>
@@ -7145,7 +7202,7 @@
         <v>1990.0050000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>20210222</v>
       </c>
@@ -7183,7 +7240,7 @@
       </c>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -7214,7 +7271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>20210223</v>
       </c>
@@ -7259,6 +7316,17 @@
       </c>
       <c r="Z52" s="6">
         <v>4860.5050000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>20210225</v>
+      </c>
+      <c r="G53" s="6">
+        <v>-70000.005000000005</v>
+      </c>
+      <c r="AA53" s="6">
+        <v>87567.604999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7271,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -7680,7 +7748,7 @@
         <v>20210223</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24">
         <v>1.629</v>
@@ -7697,7 +7765,7 @@
         <v>20210223</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25">
         <v>1.63</v>
@@ -7710,7 +7778,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{0E31B935-EB50-994C-9DD3-A0B1FA61E017}"/>
+  <autoFilter ref="A1:E13" xr:uid="{7CFC91AA-368C-B44A-BB30-AB1A95882CFE}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7719,10 +7787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAE2D-3DCE-7B45-897E-699A664705C0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7733,16 +7801,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7750,10 +7818,10 @@
         <v>20210219</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="13">
         <v>1000000</v>
@@ -7764,12 +7832,26 @@
         <v>20210222</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20210301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="13">
         <v>1000000</v>
       </c>
     </row>
@@ -7855,7 +7937,7 @@
         <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K1"/>
     </row>
@@ -8171,7 +8253,7 @@
         <v>7237885.4300000006</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J13" s="13">
         <v>631972.61</v>
@@ -8515,7 +8597,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>12</v>
@@ -8687,7 +8769,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>12</v>
@@ -8841,7 +8923,7 @@
         <v>82935</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J37" s="10"/>
     </row>
@@ -8957,7 +9039,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>12</v>
@@ -9162,7 +9244,7 @@
         <v>44197</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>16</v>
@@ -9185,7 +9267,7 @@
         <v>44197</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>29</v>
@@ -9208,7 +9290,7 @@
         <v>44197</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>21</v>
@@ -9231,7 +9313,7 @@
         <v>44197</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>10</v>
@@ -9254,7 +9336,7 @@
         <v>44197</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>19</v>
@@ -9277,7 +9359,7 @@
         <v>44197</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>52</v>
@@ -9300,7 +9382,7 @@
         <v>44197</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>42</v>
@@ -9323,7 +9405,7 @@
         <v>44197</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>143</v>
@@ -9332,7 +9414,7 @@
         <v>142</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F59" s="37" t="s">
         <v>12</v>
@@ -9346,7 +9428,7 @@
         <v>44197</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>96</v>
@@ -9369,7 +9451,7 @@
         <v>44197</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>23</v>
@@ -9392,7 +9474,7 @@
         <v>44197</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>25</v>
@@ -9401,7 +9483,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F62" s="37" t="s">
         <v>12</v>
@@ -9415,7 +9497,7 @@
         <v>44197</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>40</v>
@@ -9438,7 +9520,7 @@
         <v>44197</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>44</v>
@@ -9461,7 +9543,7 @@
         <v>44197</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>5</v>
@@ -9484,7 +9566,7 @@
         <v>44197</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>32</v>
@@ -9507,7 +9589,7 @@
         <v>44197</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>95</v>
@@ -9530,7 +9612,7 @@
         <v>44197</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>110</v>
@@ -9553,7 +9635,7 @@
         <v>44197</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>94</v>
@@ -9576,7 +9658,7 @@
         <v>44197</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>93</v>
@@ -9599,7 +9681,7 @@
         <v>44197</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>98</v>
@@ -9622,7 +9704,7 @@
         <v>44197</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>112</v>
@@ -9645,7 +9727,7 @@
         <v>44197</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>37</v>
@@ -9668,7 +9750,7 @@
         <v>44197</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>92</v>
@@ -9691,7 +9773,7 @@
         <v>44197</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>145</v>
@@ -9714,7 +9796,7 @@
         <v>44197</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>97</v>
@@ -9737,7 +9819,7 @@
         <v>44197</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>133</v>
@@ -9760,7 +9842,7 @@
         <v>44197</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>134</v>
@@ -9783,7 +9865,7 @@
         <v>44197</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>135</v>
@@ -9806,7 +9888,7 @@
         <v>44197</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>137</v>
@@ -9829,7 +9911,7 @@
         <v>44197</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>132</v>
@@ -9852,7 +9934,7 @@
         <v>44197</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>140</v>
@@ -9875,7 +9957,7 @@
         <v>44197</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>91</v>
@@ -9884,7 +9966,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>12</v>
@@ -9898,7 +9980,7 @@
         <v>44197</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>27</v>
@@ -9907,7 +9989,7 @@
         <v>28</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>12</v>
@@ -9921,7 +10003,7 @@
         <v>44197</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>54</v>
@@ -9943,7 +10025,7 @@
         <v>44197</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>57</v>
@@ -9964,7 +10046,7 @@
         <v>44197</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>58</v>
@@ -9986,7 +10068,7 @@
         <v>44197</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>60</v>
@@ -10007,7 +10089,7 @@
         <v>44197</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>64</v>
@@ -10028,7 +10110,7 @@
         <v>44197</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>67</v>
@@ -10049,7 +10131,7 @@
         <v>44197</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>69</v>
@@ -10070,7 +10152,7 @@
         <v>44197</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>72</v>
@@ -10091,7 +10173,7 @@
         <v>44197</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>74</v>
@@ -10112,7 +10194,7 @@
         <v>44197</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>138</v>
@@ -10143,7 +10225,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10160,36 +10242,36 @@
         <v>104</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" s="41">
         <v>0.2</v>
@@ -10201,13 +10283,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -10223,19 +10305,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="41">
         <v>0.15</v>
@@ -10247,19 +10329,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="41">
         <v>0.15</v>
@@ -10271,19 +10353,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="41">
         <v>0.15</v>
@@ -10298,16 +10380,16 @@
         <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="41">
         <v>0.15</v>
@@ -10322,7 +10404,7 @@
         <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>148</v>
@@ -10331,7 +10413,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="41">
         <v>0.12</v>
@@ -10346,16 +10428,16 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" s="41">
         <v>0.12</v>
@@ -10370,16 +10452,16 @@
         <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="41">
         <v>0.12</v>
@@ -10394,10 +10476,10 @@
         <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -10416,16 +10498,16 @@
         <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" s="41">
         <v>0.12</v>
@@ -10440,16 +10522,16 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="41">
         <v>0.12</v>
@@ -10464,16 +10546,16 @@
         <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="41">
         <v>0.12</v>
@@ -10488,16 +10570,16 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15">
         <v>45</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F15" s="41">
         <v>0.12</v>
@@ -10509,13 +10591,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -10531,19 +10613,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
         <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F17" s="41">
         <v>0.12</v>
@@ -10555,19 +10637,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F18" s="41">
         <v>0.2</v>
@@ -10579,7 +10661,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
@@ -10591,7 +10673,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{1563D1C6-075A-8245-AF4F-A4FE6C96CE5E}"/>
+  <autoFilter ref="A1:G19" xr:uid="{7A77F285-1919-EA41-846E-233C1B3D4BD8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AC26F8-960E-6746-9586-BA6F3F2D4BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538ABAF5-62B7-3244-81BB-5CCFC58A100E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="3" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="4" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="195">
   <si>
     <t>name</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>003095</t>
+  </si>
+  <si>
+    <t>中证100ETF</t>
+  </si>
+  <si>
+    <t>512910</t>
+  </si>
+  <si>
+    <t>2021/02/27</t>
   </si>
 </sst>
 </file>
@@ -924,7 +933,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -1189,6 +1198,9 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1684,9 +1696,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>MonthlyReport!$I$18:$I$38</c:f>
+              <c:f>MonthlyReport!$I$18:$I$39</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Mar</c:v>
@@ -1742,6 +1754,9 @@
                   <c:pt idx="17">
                     <c:v>Jan</c:v>
                   </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Feb</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1759,10 +1774,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MonthlyReport!$J$18:$J$38</c:f>
+              <c:f>MonthlyReport!$J$18:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>4520157.8100000005</c:v>
                 </c:pt>
@@ -1816,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9434555.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9615718.1000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,13 +2649,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44237.772343055556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="93" xr:uid="{CDAB3D45-F239-224D-AD8D-36210D3AEE87}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44255.844386921293" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="129" xr:uid="{CDAB3D45-F239-224D-AD8D-36210D3AEE87}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" sheet="Inv Portfolio"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="期间" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-01-02T00:00:00" count="18">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-02-02T00:00:00" count="19">
         <d v="2019-03-01T00:00:00"/>
         <d v="2019-04-01T00:00:00"/>
         <d v="2019-05-01T00:00:00"/>
@@ -2656,9 +2674,10 @@
         <d v="2020-11-01T00:00:00"/>
         <d v="2020-12-01T00:00:00"/>
         <d v="2021-01-01T00:00:00"/>
+        <d v="2021-02-01T00:00:00"/>
       </sharedItems>
       <fieldGroup par="8" base="0">
-        <rangePr groupBy="months" startDate="2019-03-01T00:00:00" endDate="2021-01-02T00:00:00"/>
+        <rangePr groupBy="months" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2019/3/1"/>
           <s v="Jan"/>
@@ -2673,7 +2692,7 @@
           <s v="Oct"/>
           <s v="Nov"/>
           <s v="Dec"/>
-          <s v="&gt;2021/1/2"/>
+          <s v="&gt;2021/2/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -2716,26 +2735,26 @@
     </cacheField>
     <cacheField name="Quarters" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2019-03-01T00:00:00" endDate="2021-01-02T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2019/3/1"/>
           <s v="Qtr1"/>
           <s v="Qtr2"/>
           <s v="Qtr3"/>
           <s v="Qtr4"/>
-          <s v="&gt;2021/1/2"/>
+          <s v="&gt;2021/2/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Years" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2019-03-01T00:00:00" endDate="2021-01-02T00:00:00"/>
+        <rangePr groupBy="years" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
         <groupItems count="5">
           <s v="&lt;2019/3/1"/>
           <s v="2019"/>
           <s v="2020"/>
           <s v="2021"/>
-          <s v="&gt;2021/1/2"/>
+          <s v="&gt;2021/2/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -2749,7 +2768,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="93">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="129">
   <r>
     <x v="0"/>
     <m/>
@@ -3587,12 +3606,336 @@
     <x v="7"/>
     <n v="19909.64"/>
   </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="富国中证红利指数增强A"/>
+    <s v="100032"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="595913.78"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="广发养老指数A"/>
+    <s v="000968"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="463154.49"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="广发医药卫生联接A"/>
+    <s v="001180"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="374206.71999999997"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="中证100ETF"/>
+    <s v="SH512910"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="318084"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="广发中证全指金融地产联接A"/>
+    <s v="001469"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="306567.36"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="传媒ETF"/>
+    <s v="SH512980"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="300291.20000000001"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="中欧价值发现混合A"/>
+    <s v="166005"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="298443.49"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="申万菱信沪深300指数增强A"/>
+    <s v="310318"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="276799.64"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="广发中证环保ETF联接A"/>
+    <s v="001064"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="271826.84999999998"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="汇添富价值精选混合A"/>
+    <s v="519069"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="265924.26"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="易方达消费行业股票"/>
+    <s v="110022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="144677.34"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="H股ETF"/>
+    <s v="SH510900"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="132031.20000000001"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="大成中证红利指数A"/>
+    <s v="090010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="129175.31"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="中欧医疗健康混合A"/>
+    <s v="003095"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="85479.72"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="易方达证券公司(LOF)"/>
+    <s v="502010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="70335.199999999997"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="易方达蓝筹精选混合"/>
+    <s v="005827"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="58551.21"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="恒生ETF"/>
+    <s v="SZ159920"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31512"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="华安德国30(DAX)联接"/>
+    <s v="000614"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="14998.41"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="鹏扬泓利债券C"/>
+    <s v="006060"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12104.04"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="广发趋势优选灵活配置混合C"/>
+    <s v="008127"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12014.6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="东方红策略精选混合C"/>
+    <s v="001406"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="11995.75"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="工银瑞信双利债券B"/>
+    <s v="485011"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="11989.17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="南方安裕混合C"/>
+    <s v="006586"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="7937.94"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="南方宝元债券C"/>
+    <s v="006585"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="3999.37"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="余额宝/微信"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="95710.17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="华泰证券-现金余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="191687.61"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="招行-货币基金/招行余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="262189.09999999998"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="香港AIA保险"/>
+    <m/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="80000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="中信信托100万"/>
+    <m/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="1000000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="天弘500增强私募"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="539000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="SAP德国股票-OwnSAP"/>
+    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="224166.9"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="招商股票+现金"/>
+    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="稳稳的幸福"/>
+    <m/>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="19951.27"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="白鹭量化CTA一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1000000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="幻方量化专享71号1期"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1000000"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="2021/02/27"/>
+    <s v="进化论复合策略一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1000000"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C0ABD5-F831-A946-BCAA-183E083812C2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I17:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I17:J39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
       <items count="14">
@@ -3642,7 +3985,7 @@
     <field x="8"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="22">
     <i>
       <x v="1"/>
     </i>
@@ -3706,6 +4049,9 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -3713,8 +4059,8 @@
   <dataFields count="1">
     <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="13">
+  <formats count="5">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="8">
@@ -3733,7 +4079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -3742,7 +4088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="9">
@@ -3762,11 +4108,23 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1" selected="0">
             <x v="3"/>
@@ -3800,13 +4158,13 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F53A3D-D6DE-304F-BF13-6E7CB60208D0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="I4:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="I4:P13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
@@ -3876,7 +4234,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3898,9 +4256,6 @@
     <i>
       <x v="6"/>
     </i>
-    <i>
-      <x v="8"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3908,15 +4263,12 @@
   <colFields count="1">
     <field x="5"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -3942,7 +4294,7 @@
     <dataField name="Sum of 现值" fld="6" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4133,15 +4485,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F51" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F51" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85A82358-2693-0B4E-8F21-92414FAF55D5}" name="Table2" displayName="Table2" ref="A1:F52" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:F52" xr:uid="{1B9475A0-6538-3643-9FED-9B9491E333C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AEA82409-3F03-C840-82D3-87540F5B9778}" name="name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{251F1083-A37F-3444-A6D7-BC9FACE5C50E}" name="code" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3FED01B9-D658-1843-B8CD-C4206FF3954E}" name="inv_place" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{AF276848-EE65-1343-9E98-7EAA72BC7E4C}" name="type_1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{332C8679-A0C1-E745-A594-DA84AD7EF4F5}" name="type_2" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{76A2C98D-480A-7448-B23B-400A529C60D1}" name="Validation" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{AEA82409-3F03-C840-82D3-87540F5B9778}" name="name" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{251F1083-A37F-3444-A6D7-BC9FACE5C50E}" name="code" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{3FED01B9-D658-1843-B8CD-C4206FF3954E}" name="inv_place" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{AF276848-EE65-1343-9E98-7EAA72BC7E4C}" name="type_1" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{332C8679-A0C1-E745-A594-DA84AD7EF4F5}" name="type_2" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{76A2C98D-480A-7448-B23B-400A529C60D1}" name="Validation" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4154,15 +4506,15 @@
     <tableColumn id="1" xr3:uid="{CD2B98C9-817A-F64F-B185-2C042E9F8C23}" name="投资日期"/>
     <tableColumn id="2" xr3:uid="{5B9C0C9F-5C23-334B-8C83-0249BF611D4C}" name="投资项目"/>
     <tableColumn id="3" xr3:uid="{3B551F34-8F89-764C-8382-CDD9980DE3FB}" name="投资地点"/>
-    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82173FFA-8ECE-0240-AD26-4F33CA311BEE}" name="Table1" displayName="Table1" ref="A1:G94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G94" xr:uid="{ED01596B-9391-F143-94B1-8ED7349E1561}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82173FFA-8ECE-0240-AD26-4F33CA311BEE}" name="Table1" displayName="Table1" ref="A1:G130" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G130" xr:uid="{ED01596B-9391-F143-94B1-8ED7349E1561}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FEA5E9B0-FCEB-D746-9A8D-F082F26F6402}" name="期间" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{3C3D8363-3260-CD47-8936-AB06ED9509BD}" name="记录日期" dataDxfId="5"/>
@@ -4473,10 +4825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5049,16 +5401,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -5069,10 +5421,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>7</v>
@@ -5081,7 +5433,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>159</v>
@@ -5089,10 +5441,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -5109,10 +5461,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>7</v>
@@ -5129,10 +5481,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
@@ -5149,10 +5501,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
@@ -5169,10 +5521,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -5189,19 +5541,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>159</v>
@@ -5209,16 +5561,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -5229,10 +5581,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
@@ -5249,17 +5601,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>159</v>
@@ -5267,11 +5621,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>56</v>
@@ -5285,11 +5639,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>56</v>
@@ -5303,17 +5657,17 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>159</v>
@@ -5321,17 +5675,17 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>159</v>
@@ -5339,17 +5693,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>159</v>
@@ -5357,17 +5711,17 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>159</v>
@@ -5375,17 +5729,17 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>159</v>
@@ -5393,29 +5747,29 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>75</v>
@@ -5424,22 +5778,22 @@
         <v>75</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>159</v>
@@ -5447,11 +5801,11 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>68</v>
@@ -5465,11 +5819,11 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>68</v>
@@ -5478,6 +5832,24 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5496,7 +5868,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
@@ -7789,7 +8161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAE2D-3DCE-7B45-897E-699A664705C0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -7865,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43DCE91-9596-DF45-B7C1-5BAC8EFA0647}">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7877,13 +8249,12 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -7911,7 +8282,7 @@
     <col min="43" max="44" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
@@ -7941,7 +8312,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>43525</v>
       </c>
@@ -7957,10 +8328,10 @@
         <v>99</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>43556</v>
       </c>
@@ -7973,7 +8344,7 @@
         <v>4375849.79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>43586</v>
       </c>
@@ -7992,7 +8363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>43647</v>
       </c>
@@ -8014,25 +8385,22 @@
         <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>43678</v>
       </c>
@@ -8049,18 +8417,17 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
-        <v>269833.65999999997</v>
+        <v>19951.27</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <v>269833.65999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P6" s="13">
+        <v>19951.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>43739</v>
       </c>
@@ -8077,20 +8444,19 @@
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <v>448649.93999999994</v>
-      </c>
+      <c r="L7" s="13">
+        <v>549586.88</v>
+      </c>
+      <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="13">
+        <v>1000000</v>
+      </c>
       <c r="P7" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>1448649.94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1549586.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>43770</v>
       </c>
@@ -8106,25 +8472,22 @@
         <v>8</v>
       </c>
       <c r="J8" s="13">
-        <v>4976144.82</v>
+        <v>3341055.37</v>
       </c>
       <c r="K8" s="13">
-        <v>39865.440000000002</v>
-      </c>
-      <c r="L8" s="13">
-        <v>480663.18</v>
-      </c>
+        <v>60040.869999999995</v>
+      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
-        <v>85263.26</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <v>5581936.7000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N8" s="13">
+        <v>14998.41</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13">
+        <v>3416094.6500000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>43800</v>
       </c>
@@ -8140,21 +8503,20 @@
         <v>35</v>
       </c>
       <c r="J9" s="13">
-        <v>442077.6</v>
+        <v>649887.19999999995</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
-        <v>242097</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
-        <v>684174.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N9" s="13">
+        <v>132031.20000000001</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13">
+        <v>781918.39999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>43831</v>
       </c>
@@ -8172,17 +8534,16 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
+      <c r="M10" s="13">
         <v>80000</v>
       </c>
+      <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
+      <c r="P10" s="13">
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>43862</v>
       </c>
@@ -8198,19 +8559,18 @@
         <v>68</v>
       </c>
       <c r="J11" s="13">
-        <v>507120</v>
+        <v>3539000</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <v>507120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P11" s="13">
+        <v>3539000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>43922</v>
       </c>
@@ -8226,21 +8586,20 @@
         <v>71</v>
       </c>
       <c r="J12" s="13">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <v>226867.57</v>
-      </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <v>230867.57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N12" s="13">
+        <v>224166.9</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13">
+        <v>229166.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>43952</v>
       </c>
@@ -8253,22 +8612,31 @@
         <v>7237885.4300000006</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="J13" s="13">
-        <v>631972.61</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13">
-        <v>631972.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>7534942.5700000003</v>
+      </c>
+      <c r="K13" s="13">
+        <v>79992.14</v>
+      </c>
+      <c r="L13" s="13">
+        <v>549586.88</v>
+      </c>
+      <c r="M13" s="13">
+        <v>80000</v>
+      </c>
+      <c r="N13" s="13">
+        <v>371196.51</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="P13" s="13">
+        <v>9615718.1000000015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>43983</v>
       </c>
@@ -8280,35 +8648,8 @@
       <c r="G14" s="25">
         <v>7764298.0251120012</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="13">
-        <v>6561315.0300000003</v>
-      </c>
-      <c r="K14" s="13">
-        <v>309699.09999999998</v>
-      </c>
-      <c r="L14" s="13">
-        <v>480663.18</v>
-      </c>
-      <c r="M14" s="13">
-        <v>448649.93999999994</v>
-      </c>
-      <c r="N14" s="13">
-        <v>80000</v>
-      </c>
-      <c r="O14" s="13">
-        <v>554227.83000000007</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>9434555.0799999982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>44013</v>
       </c>
@@ -8321,7 +8662,7 @@
         <v>8607592.6799999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>44044</v>
       </c>
@@ -8978,6 +9319,12 @@
       <c r="G39" s="22">
         <v>64072.12</v>
       </c>
+      <c r="I39" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="13">
+        <v>9615718.1000000015</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
@@ -10210,9 +10557,816 @@
         <v>19909.64</v>
       </c>
     </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="38">
+        <v>595913.78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="38">
+        <v>463154.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="38">
+        <v>374206.71999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="38">
+        <v>318084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="38">
+        <v>306567.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="38">
+        <v>300291.20000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="38">
+        <v>298443.49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="38">
+        <v>276799.64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="38">
+        <v>271826.84999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="38">
+        <v>265924.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="38">
+        <v>144677.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="38">
+        <v>132031.20000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="38">
+        <v>129175.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="38">
+        <v>85479.72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="38">
+        <v>70335.199999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="38">
+        <v>58551.21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="38">
+        <v>31512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="38">
+        <v>14998.41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" s="38">
+        <v>12104.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="38">
+        <v>12014.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" s="38">
+        <v>11995.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="38">
+        <v>11989.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117" s="38">
+        <v>7937.94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G118" s="38">
+        <v>3999.37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G119" s="38">
+        <f>11706.17+84004</f>
+        <v>95710.17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G120" s="38">
+        <v>191687.61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="38">
+        <f>128846.01+34893+98450.09</f>
+        <v>262189.09999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="38">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G123" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="38">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F125" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="38">
+        <v>224166.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F127" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G127" s="38">
+        <v>19951.27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F128" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="20">
+        <v>44228</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F130" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71CA9D5E-5665-4F4B-AA74-E4F2AEF9E0AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBBD306-A48F-0F4B-9725-48DB2AAA1516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Inv Portfolio'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Inv Portfolio'!$A$1:$G$17</definedName>
     <definedName name="demo3" localSheetId="2">I_TransRecord!#REF!</definedName>
     <definedName name="demo3_1" localSheetId="2">I_TransRecord!#REF!</definedName>
     <definedName name="demo3_2" localSheetId="2">I_TransRecord!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="204">
   <si>
     <t>name</t>
   </si>
@@ -556,9 +556,6 @@
     <t>汇添富价值精选</t>
   </si>
   <si>
-    <t>信息</t>
-  </si>
-  <si>
     <t>SH512910</t>
   </si>
   <si>
@@ -674,6 +671,12 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>资产总额</t>
+  </si>
+  <si>
+    <t>总额</t>
   </si>
 </sst>
 </file>
@@ -983,55 +986,6 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1326,13 +1280,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1340,6 +1287,62 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -2770,7 +2773,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44257.7418755787" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="129" xr:uid="{1C30A492-D50A-C348-AE5E-FD51ABE387FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wang, Laye" refreshedDate="44258.432934143515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="129" xr:uid="{1C30A492-D50A-C348-AE5E-FD51ABE387FC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2860,126 +2863,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="现值" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9008171.4100000001" count="118">
-        <n v="4520157.8100000005"/>
-        <n v="4375849.79"/>
-        <n v="4315937.05"/>
-        <n v="4480243.3099999996"/>
-        <n v="5038832.72"/>
-        <n v="5082338.07"/>
-        <n v="5137453.5599999996"/>
-        <n v="5501908.3899999997"/>
-        <n v="5235010.3900000006"/>
-        <n v="5537386.25"/>
-        <n v="6395014.0300000003"/>
-        <n v="7237885.4300000006"/>
-        <n v="7764298.0251120012"/>
-        <n v="8607592.6799999997"/>
-        <n v="8950012.6800000016"/>
-        <n v="9008171.4100000001"/>
-        <n v="743825.95"/>
-        <n v="702621.55"/>
-        <n v="646521.43000000005"/>
-        <n v="623026.43000000005"/>
-        <n v="464895.32"/>
-        <n v="347075.22"/>
-        <n v="346572.76"/>
-        <n v="282231.06"/>
-        <n v="272661.15000000002"/>
-        <n v="266543.56"/>
-        <n v="259049.76"/>
-        <n v="244909.91"/>
-        <n v="242566.8"/>
-        <n v="210758.38"/>
-        <n v="208644.8"/>
-        <n v="165378.6"/>
-        <n v="126161.67"/>
-        <n v="95574.2"/>
-        <n v="87391.62"/>
-        <n v="82935"/>
-        <n v="77581.960000000006"/>
-        <n v="64072.12"/>
-        <n v="29764.799999999999"/>
-        <n v="19269.599999999999"/>
-        <n v="0"/>
-        <n v="266822.62"/>
-        <n v="36348.57"/>
-        <n v="301621.53000000003"/>
-        <n v="80000"/>
-        <n v="1000000"/>
-        <n v="503080"/>
-        <n v="221172.2"/>
-        <n v="5000"/>
-        <n v="249392.02"/>
-        <n v="764948.44"/>
-        <n v="690141.59"/>
-        <n v="652833.63"/>
-        <n v="640514.89"/>
-        <n v="458172.68"/>
-        <n v="365831.69"/>
-        <n v="356863.51"/>
-        <n v="344782.2"/>
-        <n v="313940.8"/>
-        <n v="299961.19"/>
-        <n v="287190.40999999997"/>
-        <n v="272506.53000000003"/>
-        <n v="264884.25"/>
-        <n v="215778.93"/>
-        <n v="183913.44"/>
-        <n v="132031.20000000001"/>
-        <n v="122120.67"/>
-        <n v="97415.2"/>
-        <n v="91485"/>
-        <n v="85263.26"/>
-        <n v="73818.89"/>
-        <n v="65090.53"/>
-        <n v="30721.599999999999"/>
-        <n v="29427.14"/>
-        <n v="18580.8"/>
-        <n v="8002.74"/>
-        <n v="7975.7"/>
-        <n v="7963.01"/>
-        <n v="7961.06"/>
-        <n v="3990.55"/>
-        <n v="3972.38"/>
-        <n v="194193.66999999998"/>
-        <n v="230.45"/>
-        <n v="254225.81999999998"/>
-        <n v="507120"/>
-        <n v="226867.57"/>
-        <n v="4000"/>
-        <n v="249924.02"/>
-        <n v="19909.64"/>
-        <n v="595913.78"/>
-        <n v="463154.49"/>
-        <n v="374206.71999999997"/>
-        <n v="318084"/>
-        <n v="306567.36"/>
-        <n v="300291.20000000001"/>
-        <n v="298443.49"/>
-        <n v="276799.64"/>
-        <n v="271826.84999999998"/>
-        <n v="265924.26"/>
-        <n v="144677.34"/>
-        <n v="129175.31"/>
-        <n v="85479.72"/>
-        <n v="70335.199999999997"/>
-        <n v="58551.21"/>
-        <n v="31512"/>
-        <n v="14998.41"/>
-        <n v="12104.04"/>
-        <n v="12014.6"/>
-        <n v="11995.75"/>
-        <n v="11989.17"/>
-        <n v="7937.94"/>
-        <n v="3999.37"/>
-        <n v="95710.17"/>
-        <n v="191687.61"/>
-        <n v="262189.09999999998"/>
-        <n v="539000"/>
-        <n v="224166.9"/>
-        <n v="19951.27"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9008171.4100000001"/>
     </cacheField>
     <cacheField name="Quarters" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -3025,7 +2909,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="4520157.8100000005"/>
   </r>
   <r>
     <x v="1"/>
@@ -3035,7 +2919,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <n v="4375849.79"/>
   </r>
   <r>
     <x v="2"/>
@@ -3045,7 +2929,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="2"/>
+    <n v="4315937.05"/>
   </r>
   <r>
     <x v="3"/>
@@ -3055,7 +2939,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="3"/>
+    <n v="4480243.3099999996"/>
   </r>
   <r>
     <x v="4"/>
@@ -3065,7 +2949,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="4"/>
+    <n v="5038832.72"/>
   </r>
   <r>
     <x v="5"/>
@@ -3075,7 +2959,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="5"/>
+    <n v="5082338.07"/>
   </r>
   <r>
     <x v="6"/>
@@ -3085,7 +2969,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="6"/>
+    <n v="5137453.5599999996"/>
   </r>
   <r>
     <x v="7"/>
@@ -3095,7 +2979,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="7"/>
+    <n v="5501908.3899999997"/>
   </r>
   <r>
     <x v="8"/>
@@ -3105,7 +2989,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="8"/>
+    <n v="5235010.3900000006"/>
   </r>
   <r>
     <x v="9"/>
@@ -3115,7 +2999,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="9"/>
+    <n v="5537386.25"/>
   </r>
   <r>
     <x v="10"/>
@@ -3125,7 +3009,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <n v="6395014.0300000003"/>
   </r>
   <r>
     <x v="11"/>
@@ -3135,7 +3019,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <n v="7237885.4300000006"/>
   </r>
   <r>
     <x v="12"/>
@@ -3145,7 +3029,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="12"/>
+    <n v="7764298.0251120012"/>
   </r>
   <r>
     <x v="13"/>
@@ -3155,7 +3039,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="13"/>
+    <n v="8607592.6799999997"/>
   </r>
   <r>
     <x v="14"/>
@@ -3165,7 +3049,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="14"/>
+    <n v="8950012.6800000016"/>
   </r>
   <r>
     <x v="15"/>
@@ -3175,7 +3059,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="15"/>
+    <n v="9008171.4100000001"/>
   </r>
   <r>
     <x v="16"/>
@@ -3185,7 +3069,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="16"/>
+    <n v="743825.95"/>
   </r>
   <r>
     <x v="16"/>
@@ -3195,7 +3079,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="17"/>
+    <n v="702621.55"/>
   </r>
   <r>
     <x v="16"/>
@@ -3205,7 +3089,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="18"/>
+    <n v="646521.43000000005"/>
   </r>
   <r>
     <x v="16"/>
@@ -3215,7 +3099,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="19"/>
+    <n v="623026.43000000005"/>
   </r>
   <r>
     <x v="16"/>
@@ -3225,7 +3109,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="20"/>
+    <n v="464895.32"/>
   </r>
   <r>
     <x v="16"/>
@@ -3235,7 +3119,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="21"/>
+    <n v="347075.22"/>
   </r>
   <r>
     <x v="16"/>
@@ -3245,7 +3129,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="22"/>
+    <n v="346572.76"/>
   </r>
   <r>
     <x v="16"/>
@@ -3254,8 +3138,8 @@
     <s v="166005"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="23"/>
+    <x v="2"/>
+    <n v="282231.06"/>
   </r>
   <r>
     <x v="16"/>
@@ -3265,7 +3149,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="24"/>
+    <n v="272661.15000000002"/>
   </r>
   <r>
     <x v="16"/>
@@ -3275,7 +3159,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="25"/>
+    <n v="266543.56"/>
   </r>
   <r>
     <x v="16"/>
@@ -3285,7 +3169,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="26"/>
+    <n v="259049.76"/>
   </r>
   <r>
     <x v="16"/>
@@ -3295,7 +3179,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="27"/>
+    <n v="244909.91"/>
   </r>
   <r>
     <x v="16"/>
@@ -3305,7 +3189,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="28"/>
+    <n v="242566.8"/>
   </r>
   <r>
     <x v="16"/>
@@ -3315,7 +3199,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="29"/>
+    <n v="210758.38"/>
   </r>
   <r>
     <x v="16"/>
@@ -3325,7 +3209,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="30"/>
+    <n v="208644.8"/>
   </r>
   <r>
     <x v="16"/>
@@ -3335,7 +3219,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="31"/>
+    <n v="165378.6"/>
   </r>
   <r>
     <x v="16"/>
@@ -3345,7 +3229,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="32"/>
+    <n v="126161.67"/>
   </r>
   <r>
     <x v="16"/>
@@ -3355,7 +3239,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="33"/>
+    <n v="95574.2"/>
   </r>
   <r>
     <x v="16"/>
@@ -3365,7 +3249,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="34"/>
+    <n v="87391.62"/>
   </r>
   <r>
     <x v="16"/>
@@ -3375,7 +3259,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="35"/>
+    <n v="82935"/>
   </r>
   <r>
     <x v="16"/>
@@ -3385,7 +3269,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="36"/>
+    <n v="77581.960000000006"/>
   </r>
   <r>
     <x v="16"/>
@@ -3395,7 +3279,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="37"/>
+    <n v="64072.12"/>
   </r>
   <r>
     <x v="16"/>
@@ -3405,7 +3289,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="38"/>
+    <n v="29764.799999999999"/>
   </r>
   <r>
     <x v="16"/>
@@ -3415,7 +3299,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="39"/>
+    <n v="19269.599999999999"/>
   </r>
   <r>
     <x v="16"/>
@@ -3425,7 +3309,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="40"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -3435,7 +3319,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="41"/>
+    <n v="266822.62"/>
   </r>
   <r>
     <x v="16"/>
@@ -3445,7 +3329,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="42"/>
+    <n v="36348.57"/>
   </r>
   <r>
     <x v="16"/>
@@ -3455,7 +3339,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="43"/>
+    <n v="301621.53000000003"/>
   </r>
   <r>
     <x v="16"/>
@@ -3465,7 +3349,7 @@
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="44"/>
+    <n v="80000"/>
   </r>
   <r>
     <x v="16"/>
@@ -3475,7 +3359,7 @@
     <x v="4"/>
     <x v="6"/>
     <x v="3"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
   <r>
     <x v="16"/>
@@ -3485,7 +3369,7 @@
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="46"/>
+    <n v="503080"/>
   </r>
   <r>
     <x v="16"/>
@@ -3495,7 +3379,7 @@
     <x v="7"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="47"/>
+    <n v="221172.2"/>
   </r>
   <r>
     <x v="16"/>
@@ -3505,7 +3389,7 @@
     <x v="7"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="48"/>
+    <n v="5000"/>
   </r>
   <r>
     <x v="16"/>
@@ -3515,7 +3399,7 @@
     <x v="8"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="49"/>
+    <n v="249392.02"/>
   </r>
   <r>
     <x v="17"/>
@@ -3525,7 +3409,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="50"/>
+    <n v="764948.44"/>
   </r>
   <r>
     <x v="17"/>
@@ -3535,7 +3419,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="51"/>
+    <n v="690141.59"/>
   </r>
   <r>
     <x v="17"/>
@@ -3545,7 +3429,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="52"/>
+    <n v="652833.63"/>
   </r>
   <r>
     <x v="17"/>
@@ -3555,7 +3439,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="53"/>
+    <n v="640514.89"/>
   </r>
   <r>
     <x v="17"/>
@@ -3565,7 +3449,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="54"/>
+    <n v="458172.68"/>
   </r>
   <r>
     <x v="17"/>
@@ -3575,7 +3459,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="55"/>
+    <n v="365831.69"/>
   </r>
   <r>
     <x v="17"/>
@@ -3585,7 +3469,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="56"/>
+    <n v="356863.51"/>
   </r>
   <r>
     <x v="17"/>
@@ -3595,7 +3479,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="57"/>
+    <n v="344782.2"/>
   </r>
   <r>
     <x v="17"/>
@@ -3605,7 +3489,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="58"/>
+    <n v="313940.8"/>
   </r>
   <r>
     <x v="17"/>
@@ -3615,7 +3499,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="59"/>
+    <n v="299961.19"/>
   </r>
   <r>
     <x v="17"/>
@@ -3625,7 +3509,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="60"/>
+    <n v="287190.40999999997"/>
   </r>
   <r>
     <x v="17"/>
@@ -3634,8 +3518,8 @@
     <s v="166005"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="61"/>
+    <x v="2"/>
+    <n v="272506.53000000003"/>
   </r>
   <r>
     <x v="17"/>
@@ -3645,7 +3529,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="62"/>
+    <n v="264884.25"/>
   </r>
   <r>
     <x v="17"/>
@@ -3655,7 +3539,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="63"/>
+    <n v="215778.93"/>
   </r>
   <r>
     <x v="17"/>
@@ -3665,7 +3549,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="64"/>
+    <n v="183913.44"/>
   </r>
   <r>
     <x v="17"/>
@@ -3675,7 +3559,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="65"/>
+    <n v="132031.20000000001"/>
   </r>
   <r>
     <x v="17"/>
@@ -3685,7 +3569,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="66"/>
+    <n v="122120.67"/>
   </r>
   <r>
     <x v="17"/>
@@ -3695,7 +3579,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="67"/>
+    <n v="97415.2"/>
   </r>
   <r>
     <x v="17"/>
@@ -3705,7 +3589,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="68"/>
+    <n v="91485"/>
   </r>
   <r>
     <x v="17"/>
@@ -3715,7 +3599,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="69"/>
+    <n v="85263.26"/>
   </r>
   <r>
     <x v="17"/>
@@ -3725,7 +3609,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="70"/>
+    <n v="73818.89"/>
   </r>
   <r>
     <x v="17"/>
@@ -3735,7 +3619,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="71"/>
+    <n v="65090.53"/>
   </r>
   <r>
     <x v="17"/>
@@ -3745,7 +3629,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="72"/>
+    <n v="30721.599999999999"/>
   </r>
   <r>
     <x v="17"/>
@@ -3755,7 +3639,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="73"/>
+    <n v="29427.14"/>
   </r>
   <r>
     <x v="17"/>
@@ -3765,7 +3649,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="74"/>
+    <n v="18580.8"/>
   </r>
   <r>
     <x v="17"/>
@@ -3775,7 +3659,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="75"/>
+    <n v="8002.74"/>
   </r>
   <r>
     <x v="17"/>
@@ -3785,7 +3669,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="76"/>
+    <n v="7975.7"/>
   </r>
   <r>
     <x v="17"/>
@@ -3795,7 +3679,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="77"/>
+    <n v="7963.01"/>
   </r>
   <r>
     <x v="17"/>
@@ -3805,7 +3689,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="78"/>
+    <n v="7961.06"/>
   </r>
   <r>
     <x v="17"/>
@@ -3815,7 +3699,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="79"/>
+    <n v="3990.55"/>
   </r>
   <r>
     <x v="17"/>
@@ -3825,7 +3709,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="80"/>
+    <n v="3972.38"/>
   </r>
   <r>
     <x v="17"/>
@@ -3835,7 +3719,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="40"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -3845,7 +3729,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="40"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -3855,7 +3739,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="81"/>
+    <n v="194193.66999999998"/>
   </r>
   <r>
     <x v="17"/>
@@ -3865,7 +3749,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="82"/>
+    <n v="230.45"/>
   </r>
   <r>
     <x v="17"/>
@@ -3875,7 +3759,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="83"/>
+    <n v="254225.81999999998"/>
   </r>
   <r>
     <x v="17"/>
@@ -3885,7 +3769,7 @@
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="44"/>
+    <n v="80000"/>
   </r>
   <r>
     <x v="17"/>
@@ -3895,7 +3779,7 @@
     <x v="4"/>
     <x v="6"/>
     <x v="3"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
   <r>
     <x v="17"/>
@@ -3905,7 +3789,7 @@
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="84"/>
+    <n v="507120"/>
   </r>
   <r>
     <x v="17"/>
@@ -3915,7 +3799,7 @@
     <x v="7"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="85"/>
+    <n v="226867.57"/>
   </r>
   <r>
     <x v="17"/>
@@ -3925,7 +3809,7 @@
     <x v="7"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="86"/>
+    <n v="4000"/>
   </r>
   <r>
     <x v="17"/>
@@ -3935,7 +3819,7 @@
     <x v="8"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="87"/>
+    <n v="249924.02"/>
   </r>
   <r>
     <x v="17"/>
@@ -3945,7 +3829,7 @@
     <x v="8"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="88"/>
+    <n v="19909.64"/>
   </r>
   <r>
     <x v="18"/>
@@ -3955,7 +3839,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="89"/>
+    <n v="595913.78"/>
   </r>
   <r>
     <x v="18"/>
@@ -3965,7 +3849,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="90"/>
+    <n v="463154.49"/>
   </r>
   <r>
     <x v="18"/>
@@ -3975,7 +3859,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="91"/>
+    <n v="374206.71999999997"/>
   </r>
   <r>
     <x v="18"/>
@@ -3985,7 +3869,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="92"/>
+    <n v="318084"/>
   </r>
   <r>
     <x v="18"/>
@@ -3995,7 +3879,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="93"/>
+    <n v="306567.36"/>
   </r>
   <r>
     <x v="18"/>
@@ -4005,7 +3889,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="94"/>
+    <n v="300291.20000000001"/>
   </r>
   <r>
     <x v="18"/>
@@ -4014,8 +3898,8 @@
     <s v="166005"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="95"/>
+    <x v="2"/>
+    <n v="298443.49"/>
   </r>
   <r>
     <x v="18"/>
@@ -4025,7 +3909,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="96"/>
+    <n v="276799.64"/>
   </r>
   <r>
     <x v="18"/>
@@ -4035,7 +3919,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="97"/>
+    <n v="271826.84999999998"/>
   </r>
   <r>
     <x v="18"/>
@@ -4045,7 +3929,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="98"/>
+    <n v="265924.26"/>
   </r>
   <r>
     <x v="18"/>
@@ -4055,7 +3939,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="99"/>
+    <n v="144677.34"/>
   </r>
   <r>
     <x v="18"/>
@@ -4065,7 +3949,7 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="65"/>
+    <n v="132031.20000000001"/>
   </r>
   <r>
     <x v="18"/>
@@ -4075,7 +3959,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="100"/>
+    <n v="129175.31"/>
   </r>
   <r>
     <x v="18"/>
@@ -4085,7 +3969,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="101"/>
+    <n v="85479.72"/>
   </r>
   <r>
     <x v="18"/>
@@ -4095,7 +3979,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="102"/>
+    <n v="70335.199999999997"/>
   </r>
   <r>
     <x v="18"/>
@@ -4105,7 +3989,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="103"/>
+    <n v="58551.21"/>
   </r>
   <r>
     <x v="18"/>
@@ -4115,7 +3999,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="104"/>
+    <n v="31512"/>
   </r>
   <r>
     <x v="18"/>
@@ -4125,7 +4009,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="105"/>
+    <n v="14998.41"/>
   </r>
   <r>
     <x v="18"/>
@@ -4135,7 +4019,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="106"/>
+    <n v="12104.04"/>
   </r>
   <r>
     <x v="18"/>
@@ -4145,7 +4029,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="107"/>
+    <n v="12014.6"/>
   </r>
   <r>
     <x v="18"/>
@@ -4155,7 +4039,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="108"/>
+    <n v="11995.75"/>
   </r>
   <r>
     <x v="18"/>
@@ -4165,7 +4049,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="109"/>
+    <n v="11989.17"/>
   </r>
   <r>
     <x v="18"/>
@@ -4175,7 +4059,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="110"/>
+    <n v="7937.94"/>
   </r>
   <r>
     <x v="18"/>
@@ -4185,7 +4069,7 @@
     <x v="1"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="111"/>
+    <n v="3999.37"/>
   </r>
   <r>
     <x v="18"/>
@@ -4195,7 +4079,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="112"/>
+    <n v="95710.17"/>
   </r>
   <r>
     <x v="18"/>
@@ -4205,7 +4089,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="113"/>
+    <n v="191687.61"/>
   </r>
   <r>
     <x v="18"/>
@@ -4215,7 +4099,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="114"/>
+    <n v="262189.09999999998"/>
   </r>
   <r>
     <x v="18"/>
@@ -4225,7 +4109,7 @@
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="44"/>
+    <n v="80000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4235,7 +4119,7 @@
     <x v="4"/>
     <x v="6"/>
     <x v="3"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4245,7 +4129,7 @@
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="115"/>
+    <n v="539000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4255,7 +4139,7 @@
     <x v="7"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="116"/>
+    <n v="224166.9"/>
   </r>
   <r>
     <x v="18"/>
@@ -4265,7 +4149,7 @@
     <x v="7"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="48"/>
+    <n v="5000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4275,7 +4159,7 @@
     <x v="8"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="117"/>
+    <n v="19951.27"/>
   </r>
   <r>
     <x v="18"/>
@@ -4285,7 +4169,7 @@
     <x v="6"/>
     <x v="7"/>
     <x v="3"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4295,7 +4179,7 @@
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
   <r>
     <x v="18"/>
@@ -4305,13 +4189,121 @@
     <x v="6"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="45"/>
+    <n v="1000000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="15">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="9" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
@@ -4338,128 +4330,7 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="118">
-        <item x="40"/>
-        <item x="82"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="111"/>
-        <item x="86"/>
-        <item x="48"/>
-        <item x="110"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="74"/>
-        <item x="39"/>
-        <item x="88"/>
-        <item x="117"/>
-        <item x="73"/>
-        <item x="38"/>
-        <item x="72"/>
-        <item x="104"/>
-        <item x="42"/>
-        <item x="103"/>
-        <item x="37"/>
-        <item x="71"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="36"/>
-        <item x="44"/>
-        <item x="35"/>
-        <item x="69"/>
-        <item x="101"/>
-        <item x="34"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item x="112"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="32"/>
-        <item x="100"/>
-        <item x="65"/>
-        <item x="99"/>
-        <item x="31"/>
-        <item x="64"/>
-        <item x="113"/>
-        <item x="81"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="63"/>
-        <item x="47"/>
-        <item x="116"/>
-        <item x="85"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="49"/>
-        <item x="87"/>
-        <item x="83"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="62"/>
-        <item x="98"/>
-        <item x="25"/>
-        <item x="41"/>
-        <item x="97"/>
-        <item x="61"/>
-        <item x="24"/>
-        <item x="96"/>
-        <item x="23"/>
-        <item x="60"/>
-        <item x="95"/>
-        <item x="59"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="93"/>
-        <item x="58"/>
-        <item x="92"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="91"/>
-        <item x="54"/>
-        <item x="90"/>
-        <item x="20"/>
-        <item x="46"/>
-        <item x="84"/>
-        <item x="115"/>
-        <item x="89"/>
-        <item x="19"/>
-        <item x="53"/>
-        <item x="18"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="50"/>
-        <item x="45"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="6">
         <item sd="0" x="0"/>
@@ -4556,7 +4427,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4581,9 +4452,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J14:R22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J14:Q23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
@@ -4607,7 +4478,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="8"/>
         <item x="4"/>
@@ -4621,7 +4492,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="9">
         <item x="1"/>
         <item x="7"/>
@@ -4635,129 +4506,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="119">
-        <item x="40"/>
-        <item x="82"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="111"/>
-        <item x="86"/>
-        <item x="48"/>
-        <item x="110"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="74"/>
-        <item x="39"/>
-        <item x="88"/>
-        <item x="117"/>
-        <item x="73"/>
-        <item x="38"/>
-        <item x="72"/>
-        <item x="104"/>
-        <item x="42"/>
-        <item x="103"/>
-        <item x="37"/>
-        <item x="71"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="36"/>
-        <item x="44"/>
-        <item x="35"/>
-        <item x="69"/>
-        <item x="101"/>
-        <item x="34"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item x="112"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="32"/>
-        <item x="100"/>
-        <item x="65"/>
-        <item x="99"/>
-        <item x="31"/>
-        <item x="64"/>
-        <item x="113"/>
-        <item x="81"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="63"/>
-        <item x="47"/>
-        <item x="116"/>
-        <item x="85"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="49"/>
-        <item x="87"/>
-        <item x="83"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="62"/>
-        <item x="98"/>
-        <item x="25"/>
-        <item x="41"/>
-        <item x="97"/>
-        <item x="61"/>
-        <item x="24"/>
-        <item x="96"/>
-        <item x="23"/>
-        <item x="60"/>
-        <item x="95"/>
-        <item x="59"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="93"/>
-        <item x="58"/>
-        <item x="92"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="91"/>
-        <item x="54"/>
-        <item x="90"/>
-        <item x="20"/>
-        <item x="46"/>
-        <item x="84"/>
-        <item x="115"/>
-        <item x="89"/>
-        <item x="19"/>
-        <item x="53"/>
-        <item x="18"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="50"/>
-        <item x="45"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
@@ -4781,14 +4530,17 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -4807,17 +4559,14 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -4854,265 +4603,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J4:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="15">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="8"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="119">
-        <item x="40"/>
-        <item x="82"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="111"/>
-        <item x="86"/>
-        <item x="48"/>
-        <item x="110"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="74"/>
-        <item x="39"/>
-        <item x="88"/>
-        <item x="117"/>
-        <item x="73"/>
-        <item x="38"/>
-        <item x="72"/>
-        <item x="104"/>
-        <item x="42"/>
-        <item x="103"/>
-        <item x="37"/>
-        <item x="71"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="36"/>
-        <item x="44"/>
-        <item x="35"/>
-        <item x="69"/>
-        <item x="101"/>
-        <item x="34"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item x="112"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="32"/>
-        <item x="100"/>
-        <item x="65"/>
-        <item x="99"/>
-        <item x="31"/>
-        <item x="64"/>
-        <item x="113"/>
-        <item x="81"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="63"/>
-        <item x="47"/>
-        <item x="116"/>
-        <item x="85"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="49"/>
-        <item x="87"/>
-        <item x="83"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="62"/>
-        <item x="98"/>
-        <item x="25"/>
-        <item x="41"/>
-        <item x="97"/>
-        <item x="61"/>
-        <item x="24"/>
-        <item x="96"/>
-        <item x="23"/>
-        <item x="60"/>
-        <item x="95"/>
-        <item x="59"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="93"/>
-        <item x="58"/>
-        <item x="92"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="91"/>
-        <item x="54"/>
-        <item x="90"/>
-        <item x="20"/>
-        <item x="46"/>
-        <item x="84"/>
-        <item x="115"/>
-        <item x="89"/>
-        <item x="19"/>
-        <item x="53"/>
-        <item x="18"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="50"/>
-        <item x="45"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="9" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="demo3_2" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G52" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A1:G52" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G52" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="18"/>
@@ -5140,17 +4637,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C414604F-839A-1049-BC1D-A41B1498A817}" name="Table1" displayName="Table1" ref="A1:H130" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:H130" xr:uid="{266D9BBE-CA76-904A-A576-75CFF3CE5D71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C414604F-839A-1049-BC1D-A41B1498A817}" name="Table1" displayName="Table1" ref="A1:H130" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:H130" xr:uid="{3D96C940-0FE5-8746-999D-8828EE6AE281}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DF56433-5DAF-2C41-9AB5-6F88B4F9D44D}" name="期间" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CB826871-D1D3-3E44-B418-118E05F19B9A}" name="记录日期" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{84CF45F0-3698-5D42-A279-9EECB3E0BD08}" name="项目" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7AB24FE9-77BE-0347-BBA0-B5172A6B9000}" name="代码" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{48F230CA-3B91-4742-A2FB-2C261E474A1D}" name="分类1" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A0411F19-E463-6142-9415-489AC17E7C9D}" name="分类2" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C7CA0668-95D2-6546-8F33-5CBCECD1F26C}" name="分类3" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F696CD22-ADF9-5745-8C4E-C2FFDDEFD052}" name="现值" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4DF56433-5DAF-2C41-9AB5-6F88B4F9D44D}" name="期间" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CB826871-D1D3-3E44-B418-118E05F19B9A}" name="记录日期" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{84CF45F0-3698-5D42-A279-9EECB3E0BD08}" name="项目" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7AB24FE9-77BE-0347-BBA0-B5172A6B9000}" name="代码" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{48F230CA-3B91-4742-A2FB-2C261E474A1D}" name="分类1" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A0411F19-E463-6142-9415-489AC17E7C9D}" name="分类2" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C7CA0668-95D2-6546-8F33-5CBCECD1F26C}" name="分类3" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F696CD22-ADF9-5745-8C4E-C2FFDDEFD052}" name="现值" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5455,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5485,13 +4982,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -5512,7 +5009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -5579,7 +5076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
@@ -5623,7 +5120,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
@@ -5690,7 +5187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -5711,7 +5208,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -5755,7 +5252,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -5822,7 +5319,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>91</v>
       </c>
@@ -5866,7 +5363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
@@ -5887,7 +5384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
@@ -5925,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>139</v>
@@ -5954,7 +5451,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>44</v>
       </c>
@@ -5998,7 +5495,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
@@ -6065,7 +5562,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>97</v>
       </c>
@@ -6088,10 +5585,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>31</v>
@@ -6149,7 +5646,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>139</v>
@@ -6172,7 +5669,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>139</v>
@@ -6195,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>139</v>
@@ -6218,7 +5715,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>139</v>
@@ -6241,7 +5738,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>139</v>
@@ -6264,7 +5761,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>139</v>
@@ -6318,10 +5815,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>7</v>
@@ -6354,7 +5851,7 @@
         <v>56</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>139</v>
@@ -6375,7 +5872,7 @@
         <v>56</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>139</v>
@@ -6396,7 +5893,7 @@
         <v>56</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>139</v>
@@ -6417,7 +5914,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>139</v>
@@ -6438,7 +5935,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>139</v>
@@ -6507,7 +6004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>74</v>
       </c>
@@ -6541,7 +6038,7 @@
         <v>75</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>139</v>
@@ -6562,7 +6059,7 @@
         <v>75</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>139</v>
@@ -6570,7 +6067,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="24" t="s">
@@ -6591,7 +6088,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="23" t="s">
@@ -6622,13 +6119,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z55" sqref="Z55"/>
+      <selection pane="bottomRight" activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6735,7 +6232,7 @@
         <v>128</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -6818,7 +6315,7 @@
         <v>127</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -8484,6 +7981,25 @@
       </c>
       <c r="AA55" s="4">
         <v>87259.104999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>20210302</v>
+      </c>
+      <c r="G56" s="4">
+        <v>-70000.005000000005</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>86033.005000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>20210303</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -8905,7 +8421,7 @@
         <v>20210223</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <v>1.629</v>
@@ -8922,7 +8438,7 @@
         <v>20210223</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>1.63</v>
@@ -8989,7 +8505,7 @@
         <v>20210222</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -9003,7 +8519,7 @@
         <v>20210301</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -9022,10 +8538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9039,17 +8555,26 @@
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
@@ -9069,19 +8594,19 @@
         <v>104</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>105</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>43525</v>
       </c>
@@ -9098,10 +8623,10 @@
         <v>99</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>43556</v>
       </c>
@@ -9115,7 +8640,7 @@
         <v>4375849.79</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>43586</v>
       </c>
@@ -9129,13 +8654,16 @@
         <v>4315937.05</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>43647</v>
       </c>
@@ -9152,10 +8680,13 @@
         <v>149</v>
       </c>
       <c r="K5" s="8">
-        <v>1495091.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1793534.65</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.18652113459940134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>43678</v>
       </c>
@@ -9169,13 +8700,16 @@
         <v>5038832.72</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="8">
         <v>2709579.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L6" s="15">
+        <v>0.28178644504979816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>43739</v>
       </c>
@@ -9192,10 +8726,13 @@
         <v>129</v>
       </c>
       <c r="K7" s="8">
-        <v>5411047.9200000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5112604.4300000006</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.53169242035080044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>43770</v>
       </c>
@@ -9209,13 +8746,16 @@
         <v>5137453.5599999996</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="8">
         <v>9615718.1000000015</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>43800</v>
       </c>
@@ -9229,7 +8769,7 @@
         <v>5501908.3899999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>43831</v>
       </c>
@@ -9243,7 +8783,7 @@
         <v>5235010.3900000006</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>43862</v>
       </c>
@@ -9257,13 +8797,13 @@
         <v>5537386.25</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>43922</v>
       </c>
@@ -9280,10 +8820,10 @@
         <v>99</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>43952</v>
       </c>
@@ -9297,7 +8837,7 @@
         <v>7237885.4300000006</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>43983</v>
       </c>
@@ -9311,13 +8851,13 @@
         <v>7764298.0251120012</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>44013</v>
       </c>
@@ -9331,34 +8871,31 @@
         <v>8607592.6799999997</v>
       </c>
       <c r="J15" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
         <v>185</v>
       </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>44044</v>
       </c>
@@ -9372,28 +8909,21 @@
         <v>8950012.6800000016</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8">
-        <v>3341055.37</v>
-      </c>
-      <c r="N16" s="8">
-        <v>649887.19999999995</v>
-      </c>
+      <c r="L16" s="8">
+        <v>19951.27</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <v>2539000</v>
-      </c>
+      <c r="P16" s="8"/>
       <c r="Q16" s="8">
-        <v>5000</v>
-      </c>
-      <c r="R16" s="8">
-        <v>6534942.5700000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>19951.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>44136</v>
       </c>
@@ -9407,26 +8937,23 @@
         <v>9008171.4100000001</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="8">
-        <v>19951.27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8">
-        <v>60040.869999999995</v>
+        <v>549586.88</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8">
         <v>1000000</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8">
-        <v>1079992.1399999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="8">
+        <v>1549586.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>44166</v>
       </c>
@@ -9452,22 +8979,25 @@
         <v>743825.95</v>
       </c>
       <c r="J18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="K18" s="8">
+        <v>3341055.37</v>
+      </c>
       <c r="L18" s="8">
-        <v>549586.88</v>
+        <v>60040.869999999995</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="8">
+        <v>14998.41</v>
+      </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8">
-        <v>549586.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="8">
+        <v>3416094.6500000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>44166</v>
       </c>
@@ -9493,22 +9023,23 @@
         <v>702621.55</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="K19" s="8">
+        <v>649887.19999999995</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8">
-        <v>80000</v>
+        <v>132031.20000000001</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="8">
+        <v>781918.39999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
         <v>44166</v>
       </c>
@@ -9534,26 +9065,21 @@
         <v>646521.43000000005</v>
       </c>
       <c r="J20" s="49" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8">
-        <v>14998.41</v>
-      </c>
+      <c r="M20" s="8"/>
       <c r="N20" s="8">
-        <v>132031.20000000001</v>
+        <v>80000</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8">
-        <v>224166.9</v>
-      </c>
-      <c r="R20" s="8">
-        <v>371196.51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>44166</v>
       </c>
@@ -9579,9 +9105,11 @@
         <v>623026.43000000005</v>
       </c>
       <c r="J21" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2539000</v>
+      </c>
       <c r="L21" s="8">
         <v>1000000</v>
       </c>
@@ -9589,12 +9117,11 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="8">
+        <v>3539000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>44166</v>
       </c>
@@ -9620,34 +9147,23 @@
         <v>464895.32</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="K22" s="8">
-        <v>19951.27</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1549586.88</v>
-      </c>
-      <c r="M22" s="8">
-        <v>3416094.6500000004</v>
-      </c>
-      <c r="N22" s="8">
-        <v>781918.39999999991</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8">
-        <v>80000</v>
-      </c>
-      <c r="P22" s="8">
-        <v>3539000</v>
-      </c>
+        <v>224166.9</v>
+      </c>
+      <c r="P22" s="8"/>
       <c r="Q22" s="8">
         <v>229166.9</v>
       </c>
-      <c r="R22" s="8">
-        <v>9615718.0999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>44166</v>
       </c>
@@ -9672,8 +9188,32 @@
       <c r="H23" s="32">
         <v>347075.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="8">
+        <v>6534942.5700000003</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1079992.1399999999</v>
+      </c>
+      <c r="M23" s="8">
+        <v>549586.88</v>
+      </c>
+      <c r="N23" s="8">
+        <v>80000</v>
+      </c>
+      <c r="O23" s="8">
+        <v>371196.51</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>9615718.1000000015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>44166</v>
       </c>
@@ -9699,7 +9239,7 @@
         <v>346572.76</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>44166</v>
       </c>
@@ -9719,19 +9259,19 @@
         <v>12</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H25" s="32">
         <v>282231.06</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>44166</v>
       </c>
@@ -9757,11 +9297,11 @@
         <v>272661.15000000002</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>44166</v>
       </c>
@@ -9787,13 +9327,13 @@
         <v>266543.56</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K27" s="8">
         <v>4520157.8100000005</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>44166</v>
       </c>
@@ -9819,13 +9359,13 @@
         <v>259049.76</v>
       </c>
       <c r="J28" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K28" s="8">
         <v>4375849.79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>44166</v>
       </c>
@@ -9851,13 +9391,13 @@
         <v>244909.91</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="8">
         <v>4315937.05</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>44166</v>
       </c>
@@ -9883,13 +9423,13 @@
         <v>242566.8</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" s="8">
         <v>4480243.3099999996</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>44166</v>
       </c>
@@ -9915,13 +9455,13 @@
         <v>210758.38</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K31" s="8">
         <v>5038832.72</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
         <v>44166</v>
       </c>
@@ -9947,7 +9487,7 @@
         <v>208644.8</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K32" s="8">
         <v>5082338.07</v>
@@ -9979,7 +9519,7 @@
         <v>165378.6</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K33" s="8">
         <v>5137453.5599999996</v>
@@ -10011,7 +9551,7 @@
         <v>126161.67</v>
       </c>
       <c r="J34" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K34" s="8">
         <v>5501908.3899999997</v>
@@ -10043,7 +9583,7 @@
         <v>95574.2</v>
       </c>
       <c r="J35" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K35" s="8"/>
     </row>
@@ -10073,7 +9613,7 @@
         <v>87391.62</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K36" s="8">
         <v>5235010.3900000006</v>
@@ -10105,7 +9645,7 @@
         <v>82935</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K37" s="8">
         <v>5537386.25</v>
@@ -10137,7 +9677,7 @@
         <v>77581.960000000006</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K38" s="8">
         <v>6395014.0300000003</v>
@@ -10169,7 +9709,7 @@
         <v>64072.12</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K39" s="8">
         <v>7237885.4300000006</v>
@@ -10201,7 +9741,7 @@
         <v>29764.799999999999</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K40" s="8">
         <v>7764298.0251120012</v>
@@ -10233,7 +9773,7 @@
         <v>19269.599999999999</v>
       </c>
       <c r="J41" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K41" s="8">
         <v>8607592.6799999997</v>
@@ -10265,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K42" s="8">
         <v>8950012.6800000016</v>
@@ -10289,14 +9829,14 @@
         <v>56</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="32">
         <f>191945.08+74877.54</f>
         <v>266822.62</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" s="8">
         <v>9008171.4100000001</v>
@@ -10320,13 +9860,13 @@
         <v>56</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="35">
         <v>36348.57</v>
       </c>
       <c r="J44" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K44" s="8">
         <v>9273470.589999998</v>
@@ -10350,14 +9890,14 @@
         <v>56</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="32">
         <f>48967.43+207754.1+40000+4900</f>
         <v>301621.53000000003</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K45" s="8"/>
     </row>
@@ -10379,13 +9919,13 @@
         <v>63</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="35">
         <v>80000</v>
       </c>
       <c r="J46" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K46" s="8">
         <v>9434555.0800000001</v>
@@ -10409,13 +9949,13 @@
         <v>66</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="32">
         <v>1000000</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" s="8">
         <v>9615718.1000000015</v>
@@ -10511,7 +10051,7 @@
         <v>75</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="32">
         <v>249392.02</v>
@@ -10823,7 +10363,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H63" s="32">
         <v>272506.53000000003</v>
@@ -11187,7 +10727,7 @@
         <v>75</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H77" s="32">
         <v>8002.74</v>
@@ -11213,7 +10753,7 @@
         <v>75</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H78" s="35">
         <v>7975.7</v>
@@ -11239,7 +10779,7 @@
         <v>75</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H79" s="32">
         <v>7963.01</v>
@@ -11265,7 +10805,7 @@
         <v>75</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H80" s="35">
         <v>7961.06</v>
@@ -11291,7 +10831,7 @@
         <v>75</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81" s="32">
         <v>3990.55</v>
@@ -11317,7 +10857,7 @@
         <v>75</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H82" s="35">
         <v>3972.38</v>
@@ -11393,7 +10933,7 @@
         <v>56</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H85" s="32">
         <f>32238.18+161955.49</f>
@@ -11418,7 +10958,7 @@
         <v>56</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H86" s="35">
         <v>230.45</v>
@@ -11442,7 +10982,7 @@
         <v>56</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H87" s="32">
         <f>169069.36+40000+4900+40256.46</f>
@@ -11467,7 +11007,7 @@
         <v>63</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H88" s="35">
         <v>80000</v>
@@ -11491,7 +11031,7 @@
         <v>66</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H89" s="32">
         <v>1000000</v>
@@ -11587,7 +11127,7 @@
         <v>75</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H93" s="32">
         <v>249924.02</v>
@@ -11611,7 +11151,7 @@
         <v>75</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H94" s="35">
         <v>19909.64</v>
@@ -11622,7 +11162,7 @@
         <v>44228</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>29</v>
@@ -11648,7 +11188,7 @@
         <v>44228</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>16</v>
@@ -11674,7 +11214,7 @@
         <v>44228</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>21</v>
@@ -11700,13 +11240,13 @@
         <v>44228</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>35</v>
@@ -11726,7 +11266,7 @@
         <v>44228</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>23</v>
@@ -11752,7 +11292,7 @@
         <v>44228</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>96</v>
@@ -11778,7 +11318,7 @@
         <v>44228</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>40</v>
@@ -11793,7 +11333,7 @@
         <v>12</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H101" s="32">
         <v>298443.49</v>
@@ -11804,7 +11344,7 @@
         <v>44228</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>42</v>
@@ -11830,7 +11370,7 @@
         <v>44228</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>19</v>
@@ -11856,7 +11396,7 @@
         <v>44228</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>52</v>
@@ -11882,7 +11422,7 @@
         <v>44228</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>32</v>
@@ -11908,7 +11448,7 @@
         <v>44228</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>95</v>
@@ -11934,7 +11474,7 @@
         <v>44228</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>106</v>
@@ -11960,13 +11500,13 @@
         <v>44228</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C108" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" s="34" t="s">
         <v>169</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>170</v>
       </c>
       <c r="E108" s="34" t="s">
         <v>8</v>
@@ -11986,7 +11526,7 @@
         <v>44228</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="31" t="s">
         <v>108</v>
@@ -12012,7 +11552,7 @@
         <v>44228</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>127</v>
@@ -12038,7 +11578,7 @@
         <v>44228</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>92</v>
@@ -12064,7 +11604,7 @@
         <v>44228</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>98</v>
@@ -12090,7 +11630,7 @@
         <v>44228</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>115</v>
@@ -12105,7 +11645,7 @@
         <v>75</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H113" s="32">
         <v>12104.04</v>
@@ -12116,7 +11656,7 @@
         <v>44228</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="34" t="s">
         <v>119</v>
@@ -12131,7 +11671,7 @@
         <v>75</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H114" s="35">
         <v>12014.6</v>
@@ -12142,7 +11682,7 @@
         <v>44228</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>117</v>
@@ -12157,7 +11697,7 @@
         <v>75</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H115" s="32">
         <v>11995.75</v>
@@ -12168,7 +11708,7 @@
         <v>44228</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="34" t="s">
         <v>116</v>
@@ -12183,7 +11723,7 @@
         <v>75</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H116" s="35">
         <v>11989.17</v>
@@ -12194,7 +11734,7 @@
         <v>44228</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C117" s="31" t="s">
         <v>122</v>
@@ -12209,7 +11749,7 @@
         <v>75</v>
       </c>
       <c r="G117" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H117" s="32">
         <v>7937.94</v>
@@ -12220,7 +11760,7 @@
         <v>44228</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>114</v>
@@ -12235,7 +11775,7 @@
         <v>75</v>
       </c>
       <c r="G118" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H118" s="35">
         <v>3999.37</v>
@@ -12246,7 +11786,7 @@
         <v>44228</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="31" t="s">
         <v>54</v>
@@ -12259,7 +11799,7 @@
         <v>56</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H119" s="32">
         <f>11706.17+84004</f>
@@ -12271,7 +11811,7 @@
         <v>44228</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>57</v>
@@ -12284,7 +11824,7 @@
         <v>56</v>
       </c>
       <c r="G120" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H120" s="35">
         <v>191687.61</v>
@@ -12295,7 +11835,7 @@
         <v>44228</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C121" s="31" t="s">
         <v>58</v>
@@ -12308,7 +11848,7 @@
         <v>56</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H121" s="32">
         <f>128846.01+34893+98450.09</f>
@@ -12320,7 +11860,7 @@
         <v>44228</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C122" s="34" t="s">
         <v>60</v>
@@ -12333,7 +11873,7 @@
         <v>63</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H122" s="35">
         <v>80000</v>
@@ -12344,7 +11884,7 @@
         <v>44228</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C123" s="31" t="s">
         <v>64</v>
@@ -12357,7 +11897,7 @@
         <v>66</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H123" s="32">
         <v>1000000</v>
@@ -12368,7 +11908,7 @@
         <v>44228</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C124" s="34" t="s">
         <v>67</v>
@@ -12392,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C125" s="31" t="s">
         <v>69</v>
@@ -12416,7 +11956,7 @@
         <v>44228</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C126" s="34" t="s">
         <v>72</v>
@@ -12440,7 +11980,7 @@
         <v>44228</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" s="31" t="s">
         <v>120</v>
@@ -12453,7 +11993,7 @@
         <v>75</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H127" s="32">
         <v>19951.27</v>
@@ -12464,7 +12004,7 @@
         <v>44228</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C128" s="34" t="s">
         <v>147</v>
@@ -12477,7 +12017,7 @@
         <v>75</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H128" s="35">
         <v>1000000</v>
@@ -12488,10 +12028,10 @@
         <v>44228</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D129" s="31"/>
       <c r="E129" s="31" t="s">
@@ -12512,10 +12052,10 @@
         <v>44228</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C130" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130" s="46"/>
       <c r="E130" s="46" t="s">
@@ -12542,10 +12082,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AA8A7-8AF9-314E-AF32-52CEAC1BA888}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12575,25 +12115,25 @@
         <v>159</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="N1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -12616,8 +12156,8 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="15">
-        <f t="shared" ref="G2:G7" si="0">F2*D2/$D$18</f>
-        <v>2.5157232704402517E-2</v>
+        <f t="shared" ref="G2:G16" si="0">F2*D2/$D$17</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I2">
         <v>1000</v>
@@ -12659,7 +12199,7 @@
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>2.5157232704402517E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J3" t="s">
         <v>129</v>
@@ -12700,10 +12240,10 @@
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>4.7169811320754715E-3</v>
+        <v>4.6874999999999998E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K4" s="16">
         <v>0.4</v>
@@ -12741,7 +12281,7 @@
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>5.6603773584905656E-3</v>
+        <v>5.6249999999999998E-3</v>
       </c>
       <c r="K5" s="15">
         <f>SUM(K2:K4)</f>
@@ -12773,7 +12313,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -12787,7 +12327,7 @@
         <v>130</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>160</v>
@@ -12797,7 +12337,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>6.0377358490566035E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="J7" t="s">
         <v>149</v>
@@ -12825,10 +12365,10 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>160</v>
@@ -12837,8 +12377,8 @@
         <v>0.12</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" ref="G8:G14" si="1">F8*D8/$D$18</f>
-        <v>4.5283018867924522E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="J8" t="s">
         <v>129</v>
@@ -12866,7 +12406,7 @@
         <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -12878,11 +12418,11 @@
         <v>0.12</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
-        <v>1.5094339622641509E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="16">
         <v>0.7</v>
@@ -12907,18 +12447,20 @@
         <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="F10" s="16">
         <v>0.12</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="1"/>
-        <v>1.5094339622641509E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="K10" s="15">
         <f>SUM(K7:K9)</f>
@@ -12937,10 +12479,10 @@
         <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>160</v>
@@ -12949,8 +12491,8 @@
         <v>0.12</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
-        <v>4.5283018867924522E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -12961,10 +12503,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>160</v>
@@ -12973,8 +12515,8 @@
         <v>0.12</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0188679245283017E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J12" t="s">
         <v>149</v>
@@ -13002,10 +12544,10 @@
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>160</v>
@@ -13014,8 +12556,8 @@
         <v>0.12</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="1"/>
-        <v>4.5283018867924522E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J13" t="s">
         <v>129</v>
@@ -13037,29 +12579,27 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>160</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="16">
         <v>0.12</v>
       </c>
       <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0188679245283017E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K14" s="16">
         <v>0.2</v>
@@ -13084,18 +12624,20 @@
         <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" s="16">
         <v>0.12</v>
       </c>
       <c r="G15" s="15">
-        <f>F15*D15/$D$18</f>
-        <v>1.509433962264151E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K15" s="15">
         <f>SUM(K12:K14)</f>
@@ -13108,63 +12650,39 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>160</v>
       </c>
       <c r="F16" s="16">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="15">
-        <f>F16*D16/$D$18</f>
-        <v>1.509433962264151E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.2</v>
+        <f>SUM(D2:D16)</f>
+        <v>800</v>
       </c>
       <c r="G17" s="15">
-        <f>F17*D17/$D$18</f>
-        <v>1.2578616352201259E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D2:D17)</f>
-        <v>795</v>
-      </c>
-      <c r="G18" s="15">
-        <f>SUM(G2:G17)</f>
-        <v>0.15100628930817608</v>
+        <f>SUM(G2:G16)</f>
+        <v>0.15081250000000002</v>
       </c>
     </row>
   </sheetData>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBBD306-A48F-0F4B-9725-48DB2AAA1516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC98AE81-7131-264E-AC29-1981E8EB3343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="P_TransRecord" sheetId="19" r:id="rId4"/>
     <sheet name="Monthly_Report" sheetId="23" r:id="rId5"/>
     <sheet name="Inv Portfolio" sheetId="21" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$13</definedName>
@@ -29,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="206">
   <si>
     <t>name</t>
   </si>
@@ -677,6 +678,12 @@
   </si>
   <si>
     <t>总额</t>
+  </si>
+  <si>
+    <t>工资收入</t>
+  </si>
+  <si>
+    <t>年化</t>
   </si>
 </sst>
 </file>
@@ -4195,265 +4202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="15">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="9" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item sd="0" x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="9"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J14:Q23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
@@ -4598,6 +4347,264 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="15">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="9" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item sd="0" x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6119,13 +6126,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z60" sqref="Z60"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8002,6 +8009,14 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>20210315</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-87158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8540,7 +8555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
   <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
@@ -12084,8 +12099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AA8A7-8AF9-314E-AF32-52CEAC1BA888}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A6" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12689,4 +12704,66 @@
   <autoFilter ref="A1:G18" xr:uid="{7A77F285-1919-EA41-846E-233C1B3D4BD8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68912D7-2FAA-544B-BDDA-FFD53363981B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1">
+        <v>210</v>
+      </c>
+      <c r="D1">
+        <v>2021.01</v>
+      </c>
+      <c r="E1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>2022.01</v>
+      </c>
+      <c r="E2">
+        <f>(E1)*(1+$B$2)</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2023.01</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">(E2+$B$1/3)*(1+$B$2)</f>
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>2024.01</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1826.3999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC98AE81-7131-264E-AC29-1981E8EB3343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6BA74A-3A9C-CC43-92EB-266370ED104F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
@@ -690,11 +690,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -921,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -986,6 +987,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4202,6 +4204,156 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item sd="0" x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J14:Q23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
@@ -4352,7 +4504,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
@@ -4455,156 +4607,6 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item sd="0" x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="9"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4959,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5984,7 +5986,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>139</v>
@@ -6126,13 +6128,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8017,6 +8019,20 @@
         <v>-87158</v>
       </c>
     </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>20210318</v>
+      </c>
+      <c r="E59" s="4">
+        <v>-54000</v>
+      </c>
+      <c r="G59" s="4">
+        <v>-16500</v>
+      </c>
+      <c r="P59" s="4">
+        <v>-6900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8556,7 +8572,7 @@
   <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+      <selection activeCell="K7" activeCellId="1" sqref="K5 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12099,8 +12115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AA8A7-8AF9-314E-AF32-52CEAC1BA888}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12181,18 +12197,18 @@
         <v>149</v>
       </c>
       <c r="K2" s="16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L2">
         <f>$I$2*K2</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M2" s="16">
         <v>0.2</v>
       </c>
       <c r="N2" s="15">
         <f>M2*K2</f>
-        <v>0.06</v>
+        <v>8.0000000000000016E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -12220,18 +12236,18 @@
         <v>129</v>
       </c>
       <c r="K3" s="16">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
         <f>$I$2*K3</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M3" s="16">
         <v>0.15</v>
       </c>
       <c r="N3" s="15">
         <f>M3*K3</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -12268,11 +12284,11 @@
         <v>400</v>
       </c>
       <c r="M4" s="16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4" s="15">
         <f>M4*K4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -12304,7 +12320,7 @@
       </c>
       <c r="N5" s="15">
         <f>SUM(N2:N4)</f>
-        <v>0.14500000000000002</v>
+        <v>0.14200000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -12399,18 +12415,18 @@
         <v>129</v>
       </c>
       <c r="K8" s="16">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
         <f>$I$2*K8</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M8" s="16">
         <v>0.15</v>
       </c>
       <c r="N8" s="15">
         <f>M8*K8</f>
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -12440,18 +12456,18 @@
         <v>174</v>
       </c>
       <c r="K9" s="16">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
         <f>$I$2*K9</f>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M9" s="16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9" s="15">
         <f>M9*K9</f>
-        <v>6.9999999999999993E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -12483,7 +12499,7 @@
       </c>
       <c r="N10" s="15">
         <f>SUM(N7:N9)</f>
-        <v>0.1225</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -12537,18 +12553,18 @@
         <v>149</v>
       </c>
       <c r="K12" s="16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
         <f>$I$2*K12</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M12" s="16">
         <v>0.2</v>
       </c>
       <c r="N12" s="15">
         <f>M12*K12</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -12578,18 +12594,18 @@
         <v>129</v>
       </c>
       <c r="K13" s="16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
         <f>$I$2*K13</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M13" s="16">
         <v>0.15</v>
       </c>
       <c r="N13" s="15">
         <f>M13*K13</f>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -12624,11 +12640,11 @@
         <v>200</v>
       </c>
       <c r="M14" s="16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N14" s="15">
         <f>M14*K14</f>
-        <v>2.0000000000000004E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -12660,7 +12676,7 @@
       </c>
       <c r="N15" s="15">
         <f>SUM(N12:N14)</f>
-        <v>0.16000000000000003</v>
+        <v>0.16599999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -12708,13 +12724,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68912D7-2FAA-544B-BDDA-FFD53363981B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="52"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12726,7 +12745,7 @@
       <c r="D1">
         <v>2021.01</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="52">
         <v>950</v>
       </c>
     </row>
@@ -12735,32 +12754,41 @@
         <v>205</v>
       </c>
       <c r="B2" s="16">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="D2">
         <v>2022.01</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="52">
         <f>(E1)*(1+$B$2)</f>
-        <v>1140</v>
+        <v>1073.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>2023.01</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E4" si="0">(E2+$B$1/3)*(1+$B$2)</f>
-        <v>1452</v>
+        <v>1292.155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>2024.01</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
-        <v>1826.3999999999999</v>
+        <v>1539.2351499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2025.01</v>
+      </c>
+      <c r="E5" s="52">
+        <f>(E4-262)*(1+$B$2)</f>
+        <v>1443.2757194999995</v>
       </c>
     </row>
   </sheetData>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6BA74A-3A9C-CC43-92EB-266370ED104F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B242A538-F86E-FB46-A746-C7CCD15688B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4204,7 +4204,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
@@ -4354,7 +4354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J14:Q23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
@@ -4505,7 +4505,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B242A538-F86E-FB46-A746-C7CCD15688B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D8645-FDCD-0348-9AAF-5AB3428EA13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="2040" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="207">
   <si>
     <t>name</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>年化</t>
+  </si>
+  <si>
+    <t>白鹭群贤二号量化多策略</t>
   </si>
 </sst>
 </file>
@@ -4617,8 +4620,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G52" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A1:G52" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A1:G53" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="18"/>
@@ -4959,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6116,6 +6119,27 @@
         <v>139</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6128,13 +6152,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61:XFD230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8033,6 +8057,20 @@
         <v>-6900</v>
       </c>
     </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>20210330</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-44810</v>
+      </c>
+      <c r="G60" s="4">
+        <v>-20348</v>
+      </c>
+      <c r="P60" s="4">
+        <v>-13700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8041,10 +8079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F15" sqref="F15:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8481,6 +8519,23 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20210331</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>1.21</v>
+      </c>
+      <c r="D26">
+        <v>-30000</v>
+      </c>
+      <c r="E26">
+        <v>3.63</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{7CFC91AA-368C-B44A-BB30-AB1A95882CFE}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8491,15 +8546,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAE2D-3DCE-7B45-897E-699A664705C0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8556,6 +8611,20 @@
         <v>137</v>
       </c>
       <c r="D4" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20210331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="8">
         <v>1000000</v>
       </c>
     </row>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/Documents/Life/Investment/2020年/投资体系_202103月结/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D8645-FDCD-0348-9AAF-5AB3428EA13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8AC985-FF63-1947-B6EA-AF013AC51637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -629,57 +629,6 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>资产总额</t>
-  </si>
-  <si>
-    <t>总额</t>
-  </si>
-  <si>
     <t>工资收入</t>
   </si>
   <si>
@@ -687,6 +636,9 @@
   </si>
   <si>
     <t>白鹭群贤二号量化多策略</t>
+  </si>
+  <si>
+    <t>2021/03/31</t>
   </si>
 </sst>
 </file>
@@ -764,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -815,91 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
@@ -921,11 +788,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -955,47 +873,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1013,7 +942,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1022,15 +950,11 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1064,9 +988,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1100,9 +1022,42 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1136,9 +1091,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1160,6 +1113,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1172,81 +1126,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1275,6 +1155,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1283,9 +1164,7 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1325,13 +1204,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1355,6 +1227,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1689,36 +1574,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Inv_Asset_Record.xlsx]Monthly_Report!PivotTable3</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[Inv_Asset_Record_20210401.xlsx]Monthly_Report!PivotTable3</c:name>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>资产总额</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1829,7 +1689,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monthly_Report!$K$25</c:f>
+              <c:f>Monthly_Report!$K$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1863,89 +1723,79 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Monthly_Report!$J$26:$J$47</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Oct</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2019</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2020</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>2021</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Monthly_Report!$J$27:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2019/3/1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/4/1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/5/1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/7/1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019/8/1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019/10/1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019/11/1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019/12/1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020/1/1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/2/1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/4/1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/5/1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020/6/1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020/7/1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020/8/1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/11/1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/12/1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021/1/1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021/2/1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021/3/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly_Report!$K$26:$K$47</c:f>
+              <c:f>Monthly_Report!$K$27:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4520157.8100000005</c:v>
                 </c:pt>
@@ -2003,13 +1853,16 @@
                 <c:pt idx="18">
                   <c:v>9615718.1000000015</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>9761430.0329999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-299C-164D-A746-82F9BE2F7817}"/>
+              <c16:uniqueId val="{00000000-B4D8-954F-9217-BA6A1D818864}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2023,11 +1876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1575005776"/>
-        <c:axId val="1575729856"/>
+        <c:axId val="581367552"/>
+        <c:axId val="580240080"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="1575005776"/>
+      <c:dateAx>
+        <c:axId val="581367552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,15 +1923,14 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575729856"/>
+        <c:crossAx val="580240080"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="1575729856"/>
+        <c:axId val="580240080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +1981,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575005776"/>
+        <c:crossAx val="581367552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,6 +1993,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2188,6 +2071,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -2241,7 +2125,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2748,22 +2632,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74143</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45221</xdr:rowOff>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>300981</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>116282</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9934ED50-6BA8-1C4A-89F7-208528716639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B02C0B-D6A8-9842-BF55-60361CECD2DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,13 +2669,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wang, Laye" refreshedDate="44258.432934143515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="129" xr:uid="{1C30A492-D50A-C348-AE5E-FD51ABE387FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wang, Laye" refreshedDate="44287.51008148148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="165" xr:uid="{83AE538F-4CE2-684A-8523-E2463298BAB7}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="8">
     <cacheField name="期间" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-02-02T00:00:00" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-03-02T00:00:00" count="20">
         <d v="2019-03-01T00:00:00"/>
         <d v="2019-04-01T00:00:00"/>
         <d v="2019-05-01T00:00:00"/>
@@ -2811,34 +2695,16 @@
         <d v="2020-12-01T00:00:00"/>
         <d v="2021-01-01T00:00:00"/>
         <d v="2021-02-01T00:00:00"/>
+        <d v="2021-03-01T00:00:00"/>
       </sharedItems>
-      <fieldGroup par="9" base="0">
-        <rangePr groupBy="months" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;2019/3/1"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;2021/2/2"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
-    <cacheField name="记录日期" numFmtId="0">
+    <cacheField name="记录日期" numFmtId="14">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="项目" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="代码" numFmtId="0">
+    <cacheField name="代码" numFmtId="49">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="分类1" numFmtId="0">
@@ -2874,33 +2740,8 @@
         <s v="低风险"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="现值" numFmtId="0">
+    <cacheField name="现值" numFmtId="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9008171.4100000001"/>
-    </cacheField>
-    <cacheField name="Quarters" numFmtId="0" databaseField="0">
-      <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;2019/3/1"/>
-          <s v="Qtr1"/>
-          <s v="Qtr2"/>
-          <s v="Qtr3"/>
-          <s v="Qtr4"/>
-          <s v="&gt;2021/2/2"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Years" numFmtId="0" databaseField="0">
-      <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2019-03-01T00:00:00" endDate="2021-02-02T00:00:00"/>
-        <groupItems count="5">
-          <s v="&lt;2019/3/1"/>
-          <s v="2019"/>
-          <s v="2020"/>
-          <s v="2021"/>
-          <s v="&gt;2021/2/2"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2912,7 +2753,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="129">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="165">
   <r>
     <x v="0"/>
     <m/>
@@ -4203,15 +4044,375 @@
     <x v="2"/>
     <n v="1000000"/>
   </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="富国中证红利指数增强A"/>
+    <s v="100032"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="608552.76"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="中欧医疗健康混合A"/>
+    <s v="003095"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="346386.61"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="中欧价值发现混合A"/>
+    <s v="166005"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="309207.84000000003"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="中证100ETF"/>
+    <s v="SH512910"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="300548.59999999998"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="广发中证全指金融地产联接A"/>
+    <s v="001469"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="299574.11"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="传媒ETF"/>
+    <s v="SH512980"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="284127.2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="广发中证环保ETF联接A"/>
+    <s v="001064"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="261958.25"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="汇添富价值精选混合A"/>
+    <s v="519069"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="247670.69"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="广发养老指数A"/>
+    <s v="000968"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="216265.16"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="申万菱信沪深300指数增强A"/>
+    <s v="310318"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="193784.29"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="易方达消费行业股票"/>
+    <s v="110022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="137216.19"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="大成中证红利指数A"/>
+    <s v="090010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="132462.91"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="H股ETF"/>
+    <s v="SH510900"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="93766.399999999994"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="易方达证券公司(LOF)"/>
+    <s v="502010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="66754.58"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="广发医药卫生联接A"/>
+    <s v="001180"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="58536.25"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="易方达蓝筹精选混合"/>
+    <s v="005827"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="57617.01"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="恒生ETF"/>
+    <s v="SZ159920"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="31137.599999999999"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="华安德国30(DAX)联接"/>
+    <s v="000614"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15907.07"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="鹏扬泓利债券C"/>
+    <s v="006060"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12152.44"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="东方红策略精选混合C"/>
+    <s v="001406"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12045.72"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="广发趋势优选灵活配置混合C"/>
+    <s v="008127"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12015.35"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="工银瑞信双利债券B"/>
+    <s v="485011"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="11938.12"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="南方安裕混合C"/>
+    <s v="006586"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="7972.92"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="南方宝元债券C"/>
+    <s v="006585"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="3989.91"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="余额宝/微信"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="190219.91"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="华泰证券-现金余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="36684.5"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="招行-货币基金/招行余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="515252.43000000005"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="香港AIA保险"/>
+    <m/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="80000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="中信信托100万"/>
+    <m/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1000000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="SAP德国股票-OwnSAP"/>
+    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="234975.58300000001"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="招商股票+现金"/>
+    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="稳稳的幸福"/>
+    <m/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="19931.63"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="白鹭量化CTA一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1023856.85"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="幻方量化专享71号1期"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1024500"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="进化论复合策略一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="911421.15"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="2021/03/31"/>
+    <s v="白鹭群贤二号量化多策略"/>
+    <m/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1000000"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{664CC176-C3A5-D34B-981E-19FB1ABCB366}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J25:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" defaultSubtotal="0">
-      <items count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="J26:K46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="21">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4226,115 +4427,114 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item sd="0" x="4"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="9"/>
+  <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i>
+      <x v="3"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
+    <i>
       <x v="4"/>
     </i>
-    <i r="1">
+    <i>
       <x v="5"/>
     </i>
-    <i r="1">
+    <i>
       <x v="6"/>
     </i>
-    <i r="1">
+    <i>
       <x v="7"/>
     </i>
-    <i r="1">
+    <i>
       <x v="8"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
       <x v="11"/>
     </i>
-    <i r="1">
+    <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="13"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i>
+      <x v="14"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="资产总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
-  <chartFormats count="1">
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4350,21 +4550,21 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64726761-86E1-714F-A722-B064F4FAED98}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J14:Q23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="21">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
@@ -4376,13 +4576,19 @@
         <item h="1" x="11"/>
         <item h="1" x="12"/>
         <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="10">
         <item x="8"/>
         <item x="4"/>
@@ -4396,7 +4602,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="9">
         <item x="1"/>
         <item x="7"/>
@@ -4410,33 +4616,38 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="4"/>
-  </rowFields>
-  <rowItems count="8">
+  </colFields>
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -4461,35 +4672,8 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="9" hier="-1"/>
+  <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -4508,14 +4692,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6846F478-7B73-C44B-B3F4-37A2B1BA9A7B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J4:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" numFmtId="166" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="21">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
@@ -4527,6 +4711,12 @@
         <item h="1" x="11"/>
         <item h="1" x="12"/>
         <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4544,28 +4734,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
@@ -4595,13 +4764,12 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="9" hier="-1"/>
+  <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="总额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
+    <dataField name="金额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4620,16 +4788,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A1:G53" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:G53" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{92E38D14-BF52-C642-9F75-C8652FEC0515}" name="inv_place" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{DD7A772A-150A-7947-A63C-B30F7D0227E9}" name="type_1" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{07F03570-52F6-FF4D-A6D0-3161A14324F7}" name="type_2" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{30719090-2786-8B4D-A901-631C4CE05490}" name="type_3" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{A385F69F-7FE4-0F41-8604-C66005FB4A9D}" name="Validation" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{92E38D14-BF52-C642-9F75-C8652FEC0515}" name="inv_place" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DD7A772A-150A-7947-A63C-B30F7D0227E9}" name="type_1" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{07F03570-52F6-FF4D-A6D0-3161A14324F7}" name="type_2" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{30719090-2786-8B4D-A901-631C4CE05490}" name="type_3" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A385F69F-7FE4-0F41-8604-C66005FB4A9D}" name="Validation" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4642,24 +4816,24 @@
     <tableColumn id="1" xr3:uid="{CD2B98C9-817A-F64F-B185-2C042E9F8C23}" name="投资日期"/>
     <tableColumn id="2" xr3:uid="{5B9C0C9F-5C23-334B-8C83-0249BF611D4C}" name="投资项目"/>
     <tableColumn id="3" xr3:uid="{3B551F34-8F89-764C-8382-CDD9980DE3FB}" name="投资地点"/>
-    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C414604F-839A-1049-BC1D-A41B1498A817}" name="Table1" displayName="Table1" ref="A1:H130" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="A1:H130" xr:uid="{3D96C940-0FE5-8746-999D-8828EE6AE281}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB178CD9-13EA-5F4A-9541-3C68090E1B4F}" name="Table1" displayName="Table1" ref="A1:H166" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H166" xr:uid="{76A8188B-0F35-DE44-869A-2517FA0C2E4E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DF56433-5DAF-2C41-9AB5-6F88B4F9D44D}" name="期间" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CB826871-D1D3-3E44-B418-118E05F19B9A}" name="记录日期" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{84CF45F0-3698-5D42-A279-9EECB3E0BD08}" name="项目" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7AB24FE9-77BE-0347-BBA0-B5172A6B9000}" name="代码" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{48F230CA-3B91-4742-A2FB-2C261E474A1D}" name="分类1" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A0411F19-E463-6142-9415-489AC17E7C9D}" name="分类2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C7CA0668-95D2-6546-8F33-5CBCECD1F26C}" name="分类3" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F696CD22-ADF9-5745-8C4E-C2FFDDEFD052}" name="现值" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{057C22B4-32F8-CE44-B02A-7DF58F24A648}" name="期间" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{002FC1F9-690A-364C-B17E-067C53A1AC0C}" name="记录日期" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8B27A95E-CD9B-B64F-AE13-76B27A4F078C}" name="项目" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{03DBB180-131A-984F-AD39-195F9F875F60}" name="代码" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{52296DBD-24D7-304A-B216-1D4C57D78B8F}" name="分类1" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{1C39B077-C593-DC43-8BB1-B3ADD219E54B}" name="分类2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0B448DCA-370A-C740-A64D-492EDD6CC313}" name="分类3" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{D066B927-3C85-0744-BD6D-4E343619BBC2}" name="现值"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4964,8 +5138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5000,7 +5174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -5021,7 +5195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -5088,7 +5262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
@@ -5132,7 +5306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
@@ -5199,7 +5373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -5220,7 +5394,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -5264,7 +5438,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -5331,7 +5505,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>91</v>
       </c>
@@ -5347,7 +5521,9 @@
       <c r="E17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="G17" s="24" t="s">
         <v>141</v>
       </c>
@@ -5372,10 +5548,10 @@
         <v>129</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
@@ -5396,7 +5572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
@@ -5463,7 +5639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>44</v>
       </c>
@@ -5507,7 +5683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
@@ -5548,7 +5724,7 @@
         <v>129</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5574,7 +5750,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>97</v>
       </c>
@@ -5611,8 +5787,8 @@
       <c r="E29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>129</v>
+      <c r="F29" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>139</v>
@@ -5779,7 +5955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>125</v>
       </c>
@@ -5796,10 +5972,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5819,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>139</v>
@@ -5842,7 +6018,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>139</v>
@@ -5953,7 +6129,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>67</v>
       </c>
@@ -5971,7 +6147,7 @@
         <v>129</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -6016,7 +6192,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>74</v>
       </c>
@@ -6121,7 +6297,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="24" t="s">
@@ -6152,13 +6328,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61:XFD230"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8071,6 +8247,20 @@
         <v>-13700</v>
       </c>
     </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>20210402</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-52279</v>
+      </c>
+      <c r="G61" s="4">
+        <v>-23739</v>
+      </c>
+      <c r="P61" s="4">
+        <v>-27400.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8079,10 +8269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F26"/>
+    <sheetView topLeftCell="A15" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8534,6 +8724,40 @@
       </c>
       <c r="E26">
         <v>3.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20210402</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>1.524</v>
+      </c>
+      <c r="D27">
+        <v>-20800</v>
+      </c>
+      <c r="E27">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>20210402</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28">
+        <v>1.222</v>
+      </c>
+      <c r="D28">
+        <v>-78400</v>
+      </c>
+      <c r="E28">
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +8843,7 @@
         <v>20210331</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
@@ -8638,2351 +8862,2326 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="1" sqref="K5 K7"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="J1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="54">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
         <v>43525</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29">
+      <c r="B2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37">
         <v>4520157.8100000005</v>
       </c>
-      <c r="J2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
+        <v>43556</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
+        <v>4375849.79</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>43586</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29">
+        <v>4315937.05</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2175851.9000000004</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.22290298579656892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
+        <v>43647</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40">
+        <v>4480243.3099999996</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4161035.3630000008</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.42627313302794645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>43678</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29">
+        <v>5038832.72</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3424542.7699999996</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.35082388117548469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <v>43739</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40">
+        <v>5082338.07</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9761430.0329999998</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>43770</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29">
+        <v>5137453.5599999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <v>43800</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40">
+        <v>5501908.3899999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>43831</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29">
+        <v>5235010.3900000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>43862</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40">
+        <v>5537386.25</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
-        <v>43556</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32">
-        <v>4375849.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>43586</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35">
-        <v>4315937.05</v>
-      </c>
-      <c r="J4" s="48" t="s">
+      <c r="K11" s="54">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29">
+        <v>6395014.0300000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="38">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40">
+        <v>7237885.4300000006</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29">
+        <v>7764298.0251120012</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="K4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
-        <v>43647</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32">
-        <v>4480243.3099999996</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1793534.65</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0.18652113459940134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>43678</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35">
-        <v>5038832.72</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2709579.02</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0.28178644504979816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
-        <v>43739</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32">
-        <v>5082338.07</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5112604.4300000006</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0.53169242035080044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>43770</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35">
-        <v>5137453.5599999996</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="8">
-        <v>9615718.1000000015</v>
-      </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>43800</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32">
-        <v>5501908.3899999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
-        <v>43831</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35">
-        <v>5235010.3900000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>43862</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32">
-        <v>5537386.25</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
-        <v>43922</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35">
-        <v>6395014.0300000003</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>43952</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32">
-        <v>7237885.4300000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
-        <v>43983</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35">
-        <v>7764298.0251120012</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
         <v>44013</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32">
+      <c r="B15" s="44"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40">
         <v>8607592.6799999997</v>
       </c>
-      <c r="J15" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
+        <v>2935986.6500000004</v>
+      </c>
+      <c r="N15" s="8">
+        <v>615813.39999999991</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <v>1935921.15</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="8">
+        <v>5490721.2000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29">
+        <v>8950012.6800000016</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
-        <v>44044</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35">
-        <v>8950012.6800000016</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8">
-        <v>19951.27</v>
-      </c>
-      <c r="M16" s="8"/>
+      <c r="K16" s="8">
+        <v>19931.63</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
+        <v>60114.460000000006</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8">
-        <v>19951.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="P16" s="8">
+        <v>2023856.85</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8">
+        <v>2103902.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="38">
         <v>44136</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32">
+      <c r="B17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40">
         <v>9008171.4100000001</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="31" t="s">
         <v>56</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8">
-        <v>549586.88</v>
-      </c>
+      <c r="L17" s="8">
+        <v>742156.84000000008</v>
+      </c>
+      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>1549586.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8">
+        <v>742156.84000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
         <v>44166</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="29">
         <v>743825.95</v>
       </c>
-      <c r="J18" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="8">
-        <v>3341055.37</v>
-      </c>
-      <c r="L18" s="8">
-        <v>60040.869999999995</v>
-      </c>
+      <c r="J18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8">
-        <v>14998.41</v>
+        <v>80000</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8">
-        <v>3416094.6500000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
         <v>44166</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="40">
         <v>702621.55</v>
       </c>
-      <c r="J19" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="8">
-        <v>649887.19999999995</v>
-      </c>
+      <c r="J19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8">
-        <v>132031.20000000001</v>
-      </c>
+      <c r="M19" s="8">
+        <v>15907.07</v>
+      </c>
+      <c r="N19" s="8">
+        <v>93766.399999999994</v>
+      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8">
-        <v>781918.39999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+        <v>234975.58300000001</v>
+      </c>
+      <c r="R19" s="8">
+        <v>344649.05300000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
         <v>44166</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="29">
         <v>646521.43000000005</v>
       </c>
-      <c r="J20" s="49" t="s">
-        <v>62</v>
+      <c r="J20" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8">
+        <v>1000000</v>
+      </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>80000</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <v>44166</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="40">
+        <v>623026.43000000005</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="8">
+        <v>19931.63</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1742156.84</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3012008.18</v>
+      </c>
+      <c r="N21" s="8">
+        <v>709579.79999999993</v>
+      </c>
+      <c r="O21" s="8">
         <v>80000</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
-        <v>44166</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="32">
-        <v>623026.43000000005</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="8">
-        <v>2539000</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="P21" s="8">
+        <v>3959778</v>
+      </c>
       <c r="Q21" s="8">
-        <v>3539000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
+        <v>237975.58300000001</v>
+      </c>
+      <c r="R21" s="8">
+        <v>9761430.0329999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
         <v>44166</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="29">
         <v>464895.32</v>
       </c>
-      <c r="J22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="8">
-        <v>5000</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8">
-        <v>224166.9</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8">
-        <v>229166.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="38">
         <v>44166</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="40">
         <v>347075.22</v>
       </c>
-      <c r="J23" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" s="8">
-        <v>6534942.5700000003</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1079992.1399999999</v>
-      </c>
-      <c r="M23" s="8">
-        <v>549586.88</v>
-      </c>
-      <c r="N23" s="8">
-        <v>80000</v>
-      </c>
-      <c r="O23" s="8">
-        <v>371196.51</v>
-      </c>
-      <c r="P23" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>9615718.1000000015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
         <v>44166</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="29">
         <v>346572.76</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
         <v>44166</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="40">
         <v>282231.06</v>
       </c>
-      <c r="J25" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
         <v>44166</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="29">
         <v>272661.15000000002</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+      <c r="J26" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="38">
         <v>44166</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="40">
         <v>266543.56</v>
       </c>
-      <c r="J27" s="50" t="s">
-        <v>188</v>
+      <c r="J27" s="55">
+        <v>43525</v>
       </c>
       <c r="K27" s="8">
         <v>4520157.8100000005</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
         <v>44166</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="29">
         <v>259049.76</v>
       </c>
-      <c r="J28" s="50" t="s">
-        <v>189</v>
+      <c r="J28" s="55">
+        <v>43556</v>
       </c>
       <c r="K28" s="8">
         <v>4375849.79</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
         <v>44166</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="40">
         <v>244909.91</v>
       </c>
-      <c r="J29" s="50" t="s">
-        <v>190</v>
+      <c r="J29" s="55">
+        <v>43586</v>
       </c>
       <c r="K29" s="8">
         <v>4315937.05</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="33">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
         <v>44166</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="29">
         <v>242566.8</v>
       </c>
-      <c r="J30" s="50" t="s">
-        <v>191</v>
+      <c r="J30" s="55">
+        <v>43647</v>
       </c>
       <c r="K30" s="8">
         <v>4480243.3099999996</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
         <v>44166</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="40">
         <v>210758.38</v>
       </c>
-      <c r="J31" s="50" t="s">
-        <v>192</v>
+      <c r="J31" s="55">
+        <v>43678</v>
       </c>
       <c r="K31" s="8">
         <v>5038832.72</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="27">
         <v>44166</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="29">
         <v>208644.8</v>
       </c>
-      <c r="J32" s="50" t="s">
-        <v>193</v>
+      <c r="J32" s="55">
+        <v>43739</v>
       </c>
       <c r="K32" s="8">
         <v>5082338.07</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+      <c r="A33" s="38">
         <v>44166</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="40">
         <v>165378.6</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>194</v>
+      <c r="J33" s="55">
+        <v>43770</v>
       </c>
       <c r="K33" s="8">
         <v>5137453.5599999996</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+      <c r="A34" s="27">
         <v>44166</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="29">
         <v>126161.67</v>
       </c>
-      <c r="J34" s="50" t="s">
-        <v>195</v>
+      <c r="J34" s="55">
+        <v>43800</v>
       </c>
       <c r="K34" s="8">
         <v>5501908.3899999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="38">
         <v>44166</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="40">
         <v>95574.2</v>
       </c>
-      <c r="J35" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="K35" s="8"/>
+      <c r="J35" s="55">
+        <v>43831</v>
+      </c>
+      <c r="K35" s="8">
+        <v>5235010.3900000006</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
+      <c r="A36" s="27">
         <v>44166</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="29">
         <v>87391.62</v>
       </c>
-      <c r="J36" s="50" t="s">
-        <v>197</v>
+      <c r="J36" s="55">
+        <v>43862</v>
       </c>
       <c r="K36" s="8">
-        <v>5235010.3900000006</v>
+        <v>5537386.25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+      <c r="A37" s="38">
         <v>44166</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="40">
         <v>82935</v>
       </c>
-      <c r="J37" s="50" t="s">
-        <v>198</v>
+      <c r="J37" s="55">
+        <v>43922</v>
       </c>
       <c r="K37" s="8">
-        <v>5537386.25</v>
+        <v>6395014.0300000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="33">
+      <c r="A38" s="27">
         <v>44166</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="29">
         <v>77581.960000000006</v>
       </c>
-      <c r="J38" s="50" t="s">
-        <v>189</v>
+      <c r="J38" s="55">
+        <v>43952</v>
       </c>
       <c r="K38" s="8">
-        <v>6395014.0300000003</v>
+        <v>7237885.4300000006</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+      <c r="A39" s="38">
         <v>44166</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="40">
         <v>64072.12</v>
       </c>
-      <c r="J39" s="50" t="s">
-        <v>190</v>
+      <c r="J39" s="55">
+        <v>43983</v>
       </c>
       <c r="K39" s="8">
-        <v>7237885.4300000006</v>
+        <v>7764298.0251120012</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+      <c r="A40" s="27">
         <v>44166</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="29">
         <v>29764.799999999999</v>
       </c>
-      <c r="J40" s="50" t="s">
-        <v>199</v>
+      <c r="J40" s="55">
+        <v>44013</v>
       </c>
       <c r="K40" s="8">
-        <v>7764298.0251120012</v>
+        <v>8607592.6799999997</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="38">
         <v>44166</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="40">
         <v>19269.599999999999</v>
       </c>
-      <c r="J41" s="50" t="s">
-        <v>191</v>
+      <c r="J41" s="55">
+        <v>44044</v>
       </c>
       <c r="K41" s="8">
-        <v>8607592.6799999997</v>
+        <v>8950012.6800000016</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
+      <c r="A42" s="27">
         <v>44166</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="29">
         <v>0</v>
       </c>
-      <c r="J42" s="50" t="s">
-        <v>192</v>
+      <c r="J42" s="55">
+        <v>44136</v>
       </c>
       <c r="K42" s="8">
-        <v>8950012.6800000016</v>
+        <v>9008171.4100000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+      <c r="A43" s="38">
         <v>44166</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31" t="s">
+      <c r="D43" s="47"/>
+      <c r="E43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="40">
         <f>191945.08+74877.54</f>
         <v>266822.62</v>
       </c>
-      <c r="J43" s="50" t="s">
-        <v>194</v>
+      <c r="J43" s="55">
+        <v>44166</v>
       </c>
       <c r="K43" s="8">
-        <v>9008171.4100000001</v>
+        <v>9273470.589999998</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
+      <c r="A44" s="27">
         <v>44166</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="29">
         <v>36348.57</v>
       </c>
-      <c r="J44" s="50" t="s">
-        <v>195</v>
+      <c r="J44" s="55">
+        <v>44197</v>
       </c>
       <c r="K44" s="8">
-        <v>9273470.589999998</v>
+        <v>9434555.0800000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+      <c r="A45" s="38">
         <v>44166</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31" t="s">
+      <c r="D45" s="47"/>
+      <c r="E45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="40">
         <f>48967.43+207754.1+40000+4900</f>
         <v>301621.53000000003</v>
       </c>
-      <c r="J45" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="K45" s="8"/>
+      <c r="J45" s="55">
+        <v>44228</v>
+      </c>
+      <c r="K45" s="8">
+        <v>9615718.1000000015</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
+      <c r="A46" s="27">
         <v>44166</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34" t="s">
+      <c r="D46" s="48"/>
+      <c r="E46" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="29">
         <v>80000</v>
       </c>
-      <c r="J46" s="50" t="s">
-        <v>197</v>
+      <c r="J46" s="55">
+        <v>44256</v>
       </c>
       <c r="K46" s="8">
-        <v>9434555.0800000001</v>
+        <v>9761430.0329999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="38">
         <v>44166</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31" t="s">
+      <c r="D47" s="47"/>
+      <c r="E47" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="40">
         <v>1000000</v>
       </c>
-      <c r="J47" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="K47" s="8">
-        <v>9615718.1000000015</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
+      <c r="A48" s="27">
         <v>44166</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="s">
+      <c r="D48" s="48"/>
+      <c r="E48" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="29">
         <v>503080</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+      <c r="A49" s="38">
         <v>44166</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31" t="s">
+      <c r="D49" s="47"/>
+      <c r="E49" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="40">
         <v>221172.2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
+      <c r="A50" s="27">
         <v>44166</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="29">
         <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="38">
         <v>44166</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31" t="s">
+      <c r="D51" s="47"/>
+      <c r="E51" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="40">
         <v>249392.02</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
+      <c r="A52" s="27">
         <v>44197</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="29">
         <v>764948.44</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+      <c r="A53" s="38">
         <v>44197</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="40">
         <v>690141.59</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
+      <c r="A54" s="27">
         <v>44197</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H54" s="35">
+      <c r="H54" s="29">
         <v>652833.63</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="A55" s="38">
         <v>44197</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="40">
         <v>640514.89</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="33">
+      <c r="A56" s="27">
         <v>44197</v>
       </c>
       <c r="B56" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="29">
         <v>458172.68</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="38">
         <v>44197</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="40">
         <v>365831.69</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="33">
+      <c r="A58" s="27">
         <v>44197</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="29">
         <v>356863.51</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+      <c r="A59" s="38">
         <v>44197</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="31" t="s">
+      <c r="G59" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="32">
+      <c r="H59" s="40">
         <v>344782.2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
+      <c r="A60" s="27">
         <v>44197</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="F60" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="35">
+      <c r="H60" s="29">
         <v>313940.8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+      <c r="A61" s="38">
         <v>44197</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G61" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="40">
         <v>299961.19</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="33">
+      <c r="A62" s="27">
         <v>44197</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G62" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="29">
         <v>287190.40999999997</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+      <c r="A63" s="38">
         <v>44197</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="40">
         <v>272506.53000000003</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="33">
+      <c r="A64" s="27">
         <v>44197</v>
       </c>
       <c r="B64" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="29">
         <v>264884.25</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
+      <c r="A65" s="38">
         <v>44197</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="31" t="s">
+      <c r="G65" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H65" s="40">
         <v>215778.93</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
+      <c r="A66" s="27">
         <v>44197</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="35">
+      <c r="H66" s="29">
         <v>183913.44</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
+      <c r="A67" s="38">
         <v>44197</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="40">
         <v>132031.20000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
+      <c r="A68" s="27">
         <v>44197</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="G68" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="29">
         <v>122120.67</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="30">
+      <c r="A69" s="38">
         <v>44197</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="G69" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="40">
         <v>97415.2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="33">
+      <c r="A70" s="27">
         <v>44197</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="29">
         <v>91485</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
+      <c r="A71" s="38">
         <v>44197</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="40">
         <v>85263.26</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+      <c r="A72" s="27">
         <v>44197</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G72" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="29">
         <v>73818.89</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
+      <c r="A73" s="38">
         <v>44197</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="31" t="s">
+      <c r="G73" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="40">
         <v>65090.53</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="33">
+      <c r="A74" s="27">
         <v>44197</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="G74" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="29">
         <v>30721.599999999999</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
+      <c r="A75" s="38">
         <v>44197</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="G75" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H75" s="40">
         <v>29427.14</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="33">
+      <c r="A76" s="27">
         <v>44197</v>
       </c>
       <c r="B76" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="34" t="s">
+      <c r="G76" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="29">
         <v>18580.8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="30">
+      <c r="A77" s="38">
         <v>44197</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="32">
+      <c r="H77" s="40">
         <v>8002.74</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="33">
+      <c r="A78" s="27">
         <v>44197</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="F78" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="35">
+      <c r="H78" s="29">
         <v>7975.7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="30">
+      <c r="A79" s="38">
         <v>44197</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="32">
+      <c r="H79" s="40">
         <v>7963.01</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="33">
+      <c r="A80" s="27">
         <v>44197</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="34" t="s">
+      <c r="F80" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="34" t="s">
+      <c r="G80" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H80" s="35">
+      <c r="H80" s="29">
         <v>7961.06</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="30">
+      <c r="A81" s="38">
         <v>44197</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="G81" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H81" s="32">
+      <c r="H81" s="40">
         <v>3990.55</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="33">
+      <c r="A82" s="27">
         <v>44197</v>
       </c>
       <c r="B82" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="34" t="s">
+      <c r="F82" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G82" s="34" t="s">
+      <c r="G82" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H82" s="35">
+      <c r="H82" s="29">
         <v>3972.38</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="30">
+      <c r="A83" s="38">
         <v>44197</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="G83" s="39" t="s">
         <v>129</v>
       </c>
       <c r="H83" s="40">
@@ -10990,1184 +11189,2098 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="33">
+      <c r="A84" s="27">
         <v>44197</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="G84" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H84" s="41">
+      <c r="H84" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="30">
+      <c r="A85" s="38">
         <v>44197</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="39" t="s">
+      <c r="D85" s="47"/>
+      <c r="E85" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H85" s="32">
+      <c r="H85" s="40">
         <f>32238.18+161955.49</f>
         <v>194193.66999999998</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+      <c r="A86" s="27">
         <v>44197</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34" t="s">
+      <c r="D86" s="48"/>
+      <c r="E86" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="34" t="s">
+      <c r="F86" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="29">
         <v>230.45</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
+      <c r="A87" s="38">
         <v>44197</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31" t="s">
+      <c r="D87" s="47"/>
+      <c r="E87" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G87" s="31" t="s">
+      <c r="G87" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H87" s="32">
+      <c r="H87" s="40">
         <f>169069.36+40000+4900+40256.46</f>
         <v>254225.81999999998</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="33">
+      <c r="A88" s="27">
         <v>44197</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34" t="s">
+      <c r="D88" s="48"/>
+      <c r="E88" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G88" s="34" t="s">
+      <c r="G88" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H88" s="35">
+      <c r="H88" s="29">
         <v>80000</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="30">
+      <c r="A89" s="38">
         <v>44197</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31" t="s">
+      <c r="D89" s="47"/>
+      <c r="E89" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="G89" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H89" s="32">
+      <c r="H89" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="33">
+      <c r="A90" s="27">
         <v>44197</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34" t="s">
+      <c r="D90" s="48"/>
+      <c r="E90" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="G90" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H90" s="35">
+      <c r="H90" s="29">
         <v>507120</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="30">
+      <c r="A91" s="38">
         <v>44197</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31" t="s">
+      <c r="D91" s="47"/>
+      <c r="E91" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="G91" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H91" s="32">
+      <c r="H91" s="40">
         <v>226867.57</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="33">
+      <c r="A92" s="27">
         <v>44197</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34" t="s">
+      <c r="D92" s="48"/>
+      <c r="E92" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F92" s="34" t="s">
+      <c r="F92" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H92" s="35">
+      <c r="H92" s="29">
         <v>4000</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="30">
+      <c r="A93" s="38">
         <v>44197</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="47"/>
+      <c r="E93" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="G93" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H93" s="32">
+      <c r="H93" s="40">
         <v>249924.02</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="33">
+      <c r="A94" s="27">
         <v>44197</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34" t="s">
+      <c r="D94" s="48"/>
+      <c r="E94" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G94" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H94" s="35">
+      <c r="H94" s="29">
         <v>19909.64</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
+      <c r="A95" s="38">
         <v>44228</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H95" s="32">
+      <c r="H95" s="40">
         <v>595913.78</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="33">
+      <c r="A96" s="27">
         <v>44228</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="34" t="s">
+      <c r="F96" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="34" t="s">
+      <c r="G96" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="29">
         <v>463154.49</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="30">
+      <c r="A97" s="38">
         <v>44228</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="G97" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="32">
+      <c r="H97" s="40">
         <v>374206.71999999997</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="33">
+      <c r="A98" s="27">
         <v>44228</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F98" s="34" t="s">
+      <c r="F98" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="34" t="s">
+      <c r="G98" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="29">
         <v>318084</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
+      <c r="A99" s="38">
         <v>44228</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="G99" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="32">
+      <c r="H99" s="40">
         <v>306567.36</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="33">
+      <c r="A100" s="27">
         <v>44228</v>
       </c>
       <c r="B100" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D100" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="35">
+      <c r="H100" s="29">
         <v>300291.20000000001</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="30">
+      <c r="A101" s="38">
         <v>44228</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="G101" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H101" s="32">
+      <c r="H101" s="40">
         <v>298443.49</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="33">
+      <c r="A102" s="27">
         <v>44228</v>
       </c>
       <c r="B102" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="34" t="s">
+      <c r="F102" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="34" t="s">
+      <c r="G102" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H102" s="35">
+      <c r="H102" s="29">
         <v>276799.64</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
+      <c r="A103" s="38">
         <v>44228</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="31" t="s">
+      <c r="G103" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H103" s="32">
+      <c r="H103" s="40">
         <v>271826.84999999998</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="27">
         <v>44228</v>
       </c>
       <c r="B104" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D104" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="34" t="s">
+      <c r="F104" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="34" t="s">
+      <c r="G104" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H104" s="35">
+      <c r="H104" s="29">
         <v>265924.26</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="30">
+      <c r="A105" s="38">
         <v>44228</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="31" t="s">
+      <c r="G105" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H105" s="32">
+      <c r="H105" s="40">
         <v>144677.34</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="33">
+      <c r="A106" s="27">
         <v>44228</v>
       </c>
       <c r="B106" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="34" t="s">
+      <c r="D106" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="34" t="s">
+      <c r="F106" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="G106" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H106" s="35">
+      <c r="H106" s="29">
         <v>132031.20000000001</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
+      <c r="A107" s="38">
         <v>44228</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="31" t="s">
+      <c r="G107" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H107" s="32">
+      <c r="H107" s="40">
         <v>129175.31</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="33">
+      <c r="A108" s="27">
         <v>44228</v>
       </c>
       <c r="B108" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D108" s="34" t="s">
+      <c r="D108" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="34" t="s">
+      <c r="F108" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="34" t="s">
+      <c r="G108" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H108" s="35">
+      <c r="H108" s="29">
         <v>85479.72</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="30">
+      <c r="A109" s="38">
         <v>44228</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F109" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="31" t="s">
+      <c r="G109" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H109" s="32">
+      <c r="H109" s="40">
         <v>70335.199999999997</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="33">
+      <c r="A110" s="27">
         <v>44228</v>
       </c>
       <c r="B110" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="34" t="s">
+      <c r="F110" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="34" t="s">
+      <c r="G110" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H110" s="35">
+      <c r="H110" s="29">
         <v>58551.21</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
+      <c r="A111" s="38">
         <v>44228</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F111" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="31" t="s">
+      <c r="G111" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H111" s="32">
+      <c r="H111" s="40">
         <v>31512</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="33">
+      <c r="A112" s="27">
         <v>44228</v>
       </c>
       <c r="B112" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="E112" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F112" s="34" t="s">
+      <c r="F112" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="34" t="s">
+      <c r="G112" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H112" s="35">
+      <c r="H112" s="29">
         <v>14998.41</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
+      <c r="A113" s="38">
         <v>44228</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F113" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G113" s="31" t="s">
+      <c r="G113" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H113" s="32">
+      <c r="H113" s="40">
         <v>12104.04</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="33">
+      <c r="A114" s="27">
         <v>44228</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G114" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H114" s="35">
+      <c r="H114" s="29">
         <v>12014.6</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
+      <c r="A115" s="38">
         <v>44228</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G115" s="31" t="s">
+      <c r="G115" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H115" s="32">
+      <c r="H115" s="40">
         <v>11995.75</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="33">
+      <c r="A116" s="27">
         <v>44228</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G116" s="34" t="s">
+      <c r="G116" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H116" s="35">
+      <c r="H116" s="29">
         <v>11989.17</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="30">
+      <c r="A117" s="38">
         <v>44228</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="F117" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G117" s="31" t="s">
+      <c r="G117" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H117" s="32">
+      <c r="H117" s="40">
         <v>7937.94</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="33">
+      <c r="A118" s="27">
         <v>44228</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G118" s="34" t="s">
+      <c r="G118" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H118" s="35">
+      <c r="H118" s="29">
         <v>3999.37</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="30">
+      <c r="A119" s="38">
         <v>44228</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31" t="s">
+      <c r="D119" s="47"/>
+      <c r="E119" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="F119" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G119" s="31" t="s">
+      <c r="G119" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H119" s="32">
+      <c r="H119" s="40">
         <f>11706.17+84004</f>
         <v>95710.17</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="33">
+      <c r="A120" s="27">
         <v>44228</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34" t="s">
+      <c r="D120" s="48"/>
+      <c r="E120" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="34" t="s">
+      <c r="F120" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G120" s="34" t="s">
+      <c r="G120" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H120" s="35">
+      <c r="H120" s="29">
         <v>191687.61</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="30">
+      <c r="A121" s="38">
         <v>44228</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31" t="s">
+      <c r="D121" s="47"/>
+      <c r="E121" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="F121" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="G121" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H121" s="32">
+      <c r="H121" s="40">
         <f>128846.01+34893+98450.09</f>
         <v>262189.09999999998</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="33">
+      <c r="A122" s="27">
         <v>44228</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34" t="s">
+      <c r="D122" s="48"/>
+      <c r="E122" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F122" s="34" t="s">
+      <c r="F122" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G122" s="34" t="s">
+      <c r="G122" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H122" s="35">
+      <c r="H122" s="29">
         <v>80000</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="30">
+      <c r="A123" s="38">
         <v>44228</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31" t="s">
+      <c r="D123" s="47"/>
+      <c r="E123" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G123" s="31" t="s">
+      <c r="G123" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H123" s="32">
+      <c r="H123" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="33">
+      <c r="A124" s="27">
         <v>44228</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34" t="s">
+      <c r="D124" s="48"/>
+      <c r="E124" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="34" t="s">
+      <c r="F124" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="34" t="s">
+      <c r="G124" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H124" s="35">
+      <c r="H124" s="29">
         <v>539000</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="30">
+      <c r="A125" s="38">
         <v>44228</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31" t="s">
+      <c r="D125" s="47"/>
+      <c r="E125" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="31" t="s">
+      <c r="G125" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H125" s="32">
+      <c r="H125" s="40">
         <v>224166.9</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="33">
+      <c r="A126" s="27">
         <v>44228</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34" t="s">
+      <c r="D126" s="48"/>
+      <c r="E126" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="34" t="s">
+      <c r="G126" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H126" s="35">
+      <c r="H126" s="29">
         <v>5000</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="30">
+      <c r="A127" s="38">
         <v>44228</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31" t="s">
+      <c r="D127" s="47"/>
+      <c r="E127" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G127" s="31" t="s">
+      <c r="G127" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="32">
+      <c r="H127" s="40">
         <v>19951.27</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="33">
+      <c r="A128" s="27">
         <v>44228</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34" t="s">
+      <c r="D128" s="48"/>
+      <c r="E128" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F128" s="34" t="s">
+      <c r="F128" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G128" s="34" t="s">
+      <c r="G128" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H128" s="35">
+      <c r="H128" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="30">
+      <c r="A129" s="38">
         <v>44228</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C129" s="31" t="s">
+      <c r="C129" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31" t="s">
+      <c r="D129" s="47"/>
+      <c r="E129" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="31" t="s">
+      <c r="G129" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H129" s="32">
+      <c r="H129" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="45">
+      <c r="A130" s="27">
         <v>44228</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="46" t="s">
+      <c r="C130" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46" t="s">
+      <c r="D130" s="48"/>
+      <c r="E130" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F130" s="46" t="s">
+      <c r="F130" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="46" t="s">
+      <c r="G130" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H130" s="47">
+      <c r="H130" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B131" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H131" s="40">
+        <v>608552.76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H132" s="29">
+        <v>346386.61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B133" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H133" s="40">
+        <v>309207.84000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H134" s="29">
+        <v>300548.59999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B135" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H135" s="40">
+        <v>299574.11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H136" s="29">
+        <v>284127.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B137" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137" s="40">
+        <v>261958.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" s="29">
+        <v>247670.69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B139" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H139" s="40">
+        <v>216265.16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H140" s="29">
+        <v>193784.29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B141" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H141" s="40">
+        <v>137216.19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D142" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H142" s="29">
+        <v>132462.91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B143" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H143" s="40">
+        <v>93766.399999999994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H144" s="29">
+        <v>66754.58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B145" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H145" s="40">
+        <v>58536.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H146" s="29">
+        <v>57617.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B147" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H147" s="40">
+        <v>31137.599999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H148" s="29">
+        <v>15907.07</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B149" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H149" s="40">
+        <v>12152.44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H150" s="29">
+        <v>12045.72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B151" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G151" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H151" s="40">
+        <v>12015.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H152" s="29">
+        <v>11938.12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B153" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D153" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G153" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H153" s="40">
+        <v>7972.92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D154" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H154" s="29">
+        <v>3989.91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B155" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D155" s="47"/>
+      <c r="E155" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G155" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H155" s="57">
+        <f>177850.71+12369.2</f>
+        <v>190219.91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" s="48"/>
+      <c r="E156" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H156" s="56">
+        <v>36684.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B157" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" s="47"/>
+      <c r="E157" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G157" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H157" s="57">
+        <f>303734+176651.92+34866.51</f>
+        <v>515252.43000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D158" s="48"/>
+      <c r="E158" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H158" s="56">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B159" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C159" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" s="47"/>
+      <c r="E159" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G159" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H159" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="48"/>
+      <c r="E160" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H160" s="29">
+        <v>234975.58300000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B161" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D161" s="47"/>
+      <c r="E161" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H161" s="40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="48"/>
+      <c r="E162" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H162" s="56">
+        <v>19931.63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B163" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C163" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D163" s="47"/>
+      <c r="E163" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G163" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H163" s="40">
+        <v>1023856.85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D164" s="48"/>
+      <c r="E164" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H164" s="29">
+        <v>1024500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="47"/>
+      <c r="E165" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H165" s="40">
+        <v>911421.15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B166" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" s="48"/>
+      <c r="E166" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H166" s="29">
         <v>1000000</v>
       </c>
     </row>
@@ -12185,7 +13298,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12801,12 +13914,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="52"/>
+    <col min="5" max="5" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B1">
         <v>210</v>
@@ -12814,13 +13927,13 @@
       <c r="D1">
         <v>2021.01</v>
       </c>
-      <c r="E1" s="52">
+      <c r="E1" s="33">
         <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B2" s="16">
         <v>0.13</v>
@@ -12828,7 +13941,7 @@
       <c r="D2">
         <v>2022.01</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="33">
         <f>(E1)*(1+$B$2)</f>
         <v>1073.5</v>
       </c>
@@ -12837,7 +13950,7 @@
       <c r="D3">
         <v>2023.01</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="33">
         <f t="shared" ref="E3:E4" si="0">(E2+$B$1/3)*(1+$B$2)</f>
         <v>1292.155</v>
       </c>
@@ -12846,7 +13959,7 @@
       <c r="D4">
         <v>2024.01</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>1539.2351499999997</v>
       </c>
@@ -12855,7 +13968,7 @@
       <c r="D5">
         <v>2025.01</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="33">
         <f>(E4-262)*(1+$B$2)</f>
         <v>1443.2757194999995</v>
       </c>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/Documents/Life/Investment/2020年/投资体系_202103月结/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8AC985-FF63-1947-B6EA-AF013AC51637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3D6E0F-3D4D-F54E-9EF3-0A1395273BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="2040" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="2" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sheet1" sheetId="24" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Inv Portfolio'!$A$1:$G$17</definedName>
     <definedName name="demo3" localSheetId="2">I_TransRecord!#REF!</definedName>
     <definedName name="demo3_1" localSheetId="2">I_TransRecord!#REF!</definedName>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -645,12 +645,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -843,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -920,6 +921,7 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,7 +1576,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Inv_Asset_Record_20210401.xlsx]Monthly_Report!PivotTable3</c:name>
+    <c:name>[Inv_Asset_Record.xlsx]Monthly_Report!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -4408,7 +4410,234 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="21">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="21">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="金额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J26:K46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -4544,233 +4773,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="21">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="10">
-        <item x="8"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="21">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="金额" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-    <dataField name="比例" fld="7" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5138,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5327,7 +5329,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>129</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5528,7 +5530,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>92</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>95</v>
       </c>
@@ -6328,13 +6330,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8261,6 +8263,23 @@
         <v>-27400.9</v>
       </c>
     </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>20210406</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-52280.5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-73500</v>
+      </c>
+      <c r="G62" s="4">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K62" s="4">
+        <v>-600000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8269,10 +8288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8760,8 +8779,60 @@
         <v>9.6</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>0.626</v>
+      </c>
+      <c r="D29">
+        <v>481300</v>
+      </c>
+      <c r="E29">
+        <f>30.13</f>
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30">
+        <v>1.478</v>
+      </c>
+      <c r="D30">
+        <v>-193800</v>
+      </c>
+      <c r="E30">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="D31">
+        <v>-10100</v>
+      </c>
+      <c r="E31">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{7CFC91AA-368C-B44A-BB30-AB1A95882CFE}"/>
+  <autoFilter ref="A1:E31" xr:uid="{7CFC91AA-368C-B44A-BB30-AB1A95882CFE}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8862,13 +8933,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="45" bestFit="1" customWidth="1"/>
@@ -8982,6 +9053,7 @@
       <c r="L4" s="15">
         <v>0.22290298579656892</v>
       </c>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
@@ -9005,6 +9077,7 @@
       <c r="L5" s="15">
         <v>0.42627313302794645</v>
       </c>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
@@ -9028,6 +9101,7 @@
       <c r="L6" s="15">
         <v>0.35082388117548469</v>
       </c>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
@@ -9257,7 +9331,7 @@
         <v>2103902.94</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>44136</v>
       </c>
@@ -9286,7 +9360,7 @@
         <v>742156.84000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>44166</v>
       </c>
@@ -9327,7 +9401,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>44166</v>
       </c>
@@ -9372,7 +9446,7 @@
         <v>344649.05300000001</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>44166</v>
       </c>
@@ -9413,7 +9487,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <v>44166</v>
       </c>
@@ -9465,8 +9539,9 @@
       <c r="R21" s="8">
         <v>9761430.0329999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="58"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>44166</v>
       </c>
@@ -9492,7 +9567,7 @@
         <v>464895.32</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>44166</v>
       </c>
@@ -9518,7 +9593,7 @@
         <v>347075.22</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>44166</v>
       </c>
@@ -9544,7 +9619,7 @@
         <v>346572.76</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>44166</v>
       </c>
@@ -9570,7 +9645,7 @@
         <v>282231.06</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>44166</v>
       </c>
@@ -9602,7 +9677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <v>44166</v>
       </c>
@@ -9634,7 +9709,7 @@
         <v>4520157.8100000005</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>44166</v>
       </c>
@@ -9666,7 +9741,7 @@
         <v>4375849.79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
         <v>44166</v>
       </c>
@@ -9698,7 +9773,7 @@
         <v>4315937.05</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>44166</v>
       </c>
@@ -9730,7 +9805,7 @@
         <v>4480243.3099999996</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="38">
         <v>44166</v>
       </c>
@@ -9762,7 +9837,7 @@
         <v>5038832.72</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>44166</v>
       </c>
@@ -13297,8 +13372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AA8A7-8AF9-314E-AF32-52CEAC1BA888}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="E1" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13406,7 +13481,9 @@
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="F3" s="16">
         <v>0.2</v>
       </c>
@@ -13803,7 +13880,9 @@
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="F14" s="16">
         <v>0.12</v>
       </c>
@@ -13912,7 +13991,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="10.83203125" style="33"/>
   </cols>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3D6E0F-3D4D-F54E-9EF3-0A1395273BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BCCB08-6AF6-F340-8E5E-F1B70EAB3ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="2" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="6" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="P_TransRecord" sheetId="19" r:id="rId4"/>
     <sheet name="Monthly_Report" sheetId="23" r:id="rId5"/>
     <sheet name="Inv Portfolio" sheetId="21" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId7"/>
+    <sheet name="3_years_target" sheetId="25" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">I_TransRecord!$A$1:$E$31</definedName>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -629,16 +629,40 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>工资收入</t>
-  </si>
-  <si>
-    <t>年化</t>
-  </si>
-  <si>
     <t>白鹭群贤二号量化多策略</t>
   </si>
   <si>
     <t>2021/03/31</t>
+  </si>
+  <si>
+    <t>希瓦小牛45号</t>
+  </si>
+  <si>
+    <t>中金财富</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Days remained</t>
+  </si>
+  <si>
+    <t>Today is:</t>
+  </si>
+  <si>
+    <t>Gap amount</t>
+  </si>
+  <si>
+    <t>&lt;-deduct salary pay</t>
+  </si>
+  <si>
+    <t>Target date is:</t>
+  </si>
+  <si>
+    <t>Gap ratio</t>
+  </si>
+  <si>
+    <t>Compound interest</t>
   </si>
 </sst>
 </file>
@@ -697,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +738,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -844,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -922,6 +964,13 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4410,7 +4459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4545,7 +4594,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4637,7 +4686,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J26:K46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -4790,14 +4839,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A1:G53" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G54" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:G54" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="17"/>
@@ -5138,10 +5181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5176,7 +5219,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -5197,7 +5240,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -5264,7 +5307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
@@ -5308,7 +5351,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
@@ -5329,7 +5372,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
@@ -5375,7 +5418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -5396,7 +5439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -5440,7 +5483,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -5507,7 +5550,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>91</v>
       </c>
@@ -5530,7 +5573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>92</v>
       </c>
@@ -5553,7 +5596,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
@@ -5574,7 +5617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
@@ -5641,7 +5684,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>44</v>
       </c>
@@ -5685,7 +5728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>94</v>
       </c>
@@ -5706,7 +5749,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>95</v>
       </c>
@@ -5752,7 +5795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>97</v>
       </c>
@@ -5957,7 +6000,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>125</v>
       </c>
@@ -6131,7 +6174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>67</v>
       </c>
@@ -6194,7 +6237,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>74</v>
       </c>
@@ -6299,7 +6342,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="24" t="s">
@@ -6315,6 +6358,27 @@
         <v>174</v>
       </c>
       <c r="G53" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="23" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8290,7 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE94083A-33CE-444E-BA80-513B51C9B5C0}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8841,10 +8905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EAE2D-3DCE-7B45-897E-699A664705C0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8914,12 +8978,26 @@
         <v>20210331</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
       </c>
       <c r="D5" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20210409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="8">
         <v>1000000</v>
       </c>
     </row>
@@ -8935,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" topLeftCell="D19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12450,7 +12528,7 @@
         <v>44256</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>29</v>
@@ -12476,7 +12554,7 @@
         <v>44256</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C132" s="28" t="s">
         <v>168</v>
@@ -12502,7 +12580,7 @@
         <v>44256</v>
       </c>
       <c r="B133" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>40</v>
@@ -12528,7 +12606,7 @@
         <v>44256</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C134" s="28" t="s">
         <v>170</v>
@@ -12554,7 +12632,7 @@
         <v>44256</v>
       </c>
       <c r="B135" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C135" s="39" t="s">
         <v>23</v>
@@ -12580,7 +12658,7 @@
         <v>44256</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>96</v>
@@ -12606,7 +12684,7 @@
         <v>44256</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>19</v>
@@ -12632,7 +12710,7 @@
         <v>44256</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C138" s="28" t="s">
         <v>52</v>
@@ -12658,7 +12736,7 @@
         <v>44256</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>16</v>
@@ -12684,7 +12762,7 @@
         <v>44256</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C140" s="28" t="s">
         <v>42</v>
@@ -12710,7 +12788,7 @@
         <v>44256</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>32</v>
@@ -12736,7 +12814,7 @@
         <v>44256</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C142" s="28" t="s">
         <v>106</v>
@@ -12762,7 +12840,7 @@
         <v>44256</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>95</v>
@@ -12788,7 +12866,7 @@
         <v>44256</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C144" s="28" t="s">
         <v>108</v>
@@ -12814,7 +12892,7 @@
         <v>44256</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>21</v>
@@ -12840,7 +12918,7 @@
         <v>44256</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C146" s="28" t="s">
         <v>127</v>
@@ -12866,7 +12944,7 @@
         <v>44256</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>92</v>
@@ -12892,7 +12970,7 @@
         <v>44256</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C148" s="28" t="s">
         <v>98</v>
@@ -12918,7 +12996,7 @@
         <v>44256</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>115</v>
@@ -12944,7 +13022,7 @@
         <v>44256</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C150" s="28" t="s">
         <v>117</v>
@@ -12970,7 +13048,7 @@
         <v>44256</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>119</v>
@@ -12996,7 +13074,7 @@
         <v>44256</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C152" s="28" t="s">
         <v>116</v>
@@ -13022,7 +13100,7 @@
         <v>44256</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C153" s="39" t="s">
         <v>122</v>
@@ -13048,7 +13126,7 @@
         <v>44256</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C154" s="28" t="s">
         <v>114</v>
@@ -13074,7 +13152,7 @@
         <v>44256</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C155" s="39" t="s">
         <v>54</v>
@@ -13099,7 +13177,7 @@
         <v>44256</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C156" s="28" t="s">
         <v>57</v>
@@ -13123,7 +13201,7 @@
         <v>44256</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C157" s="39" t="s">
         <v>58</v>
@@ -13148,7 +13226,7 @@
         <v>44256</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C158" s="28" t="s">
         <v>60</v>
@@ -13172,7 +13250,7 @@
         <v>44256</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C159" s="39" t="s">
         <v>64</v>
@@ -13196,7 +13274,7 @@
         <v>44256</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C160" s="28" t="s">
         <v>69</v>
@@ -13220,7 +13298,7 @@
         <v>44256</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C161" s="39" t="s">
         <v>72</v>
@@ -13244,7 +13322,7 @@
         <v>44256</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C162" s="28" t="s">
         <v>120</v>
@@ -13268,7 +13346,7 @@
         <v>44256</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C163" s="39" t="s">
         <v>147</v>
@@ -13292,7 +13370,7 @@
         <v>44256</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C164" s="28" t="s">
         <v>164</v>
@@ -13316,7 +13394,7 @@
         <v>44256</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C165" s="39" t="s">
         <v>167</v>
@@ -13340,10 +13418,10 @@
         <v>44256</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D166" s="48"/>
       <c r="E166" s="28" t="s">
@@ -13984,72 +14062,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68912D7-2FAA-544B-BDDA-FFD53363981B}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA54A02-67A8-E94E-BEFE-220CFC4B527E}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="33"/>
+    <col min="2" max="2" width="11.33203125" style="45"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1">
-        <v>210</v>
-      </c>
-      <c r="D1">
-        <v>2021.01</v>
-      </c>
-      <c r="E1" s="33">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="D2">
-        <v>2022.01</v>
-      </c>
-      <c r="E2" s="33">
-        <f>(E1)*(1+$B$2)</f>
-        <v>1073.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D3">
-        <v>2023.01</v>
-      </c>
-      <c r="E3" s="33">
-        <f t="shared" ref="E3:E4" si="0">(E2+$B$1/3)*(1+$B$2)</f>
-        <v>1292.155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <v>2024.01</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" si="0"/>
-        <v>1539.2351499999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <v>2025.01</v>
-      </c>
-      <c r="E5" s="33">
-        <f>(E4-262)*(1+$B$2)</f>
-        <v>1443.2757194999995</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="61">
+        <f>B3-B2</f>
+        <v>976</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="J1" s="45">
+        <v>44316</v>
+      </c>
+      <c r="K1" s="15">
+        <v>0.19216359084894719</v>
+      </c>
+      <c r="L1" s="15">
+        <v>0.14910000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="45">
+        <v>44316</v>
+      </c>
+      <c r="C2" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="63">
+        <f>C3-C2</f>
+        <v>6000000</v>
+      </c>
+      <c r="G2" s="63">
+        <f>F2-1500000</f>
+        <v>4500000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="64">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="63">
+        <v>16000000</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="65">
+        <f>F2/C2</f>
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="65">
+        <f>G2/C2</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="65">
+        <f>(1+F$3)^(1/$F$1*365)-1</f>
+        <v>0.19216359084894719</v>
+      </c>
+      <c r="G4" s="65">
+        <f>(1+G$3)^(1/$F$1*365)-1</f>
+        <v>0.14907311828688519</v>
       </c>
     </row>
   </sheetData>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BCCB08-6AF6-F340-8E5E-F1B70EAB3ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACAE6BF-9CAC-814B-A2D4-CC0E1B6C6EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="6" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4459,7 +4459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4594,7 +4594,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4686,7 +4686,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J26:K46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6396,11 +6396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8341,7 +8341,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="K62" s="4">
-        <v>-600000</v>
+        <v>-60000</v>
       </c>
     </row>
   </sheetData>
@@ -14065,7 +14065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA54A02-67A8-E94E-BEFE-220CFC4B527E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="187" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/01_params/Inv_Asset_Record.xlsx
+++ b/01_params/Inv_Asset_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i335644/PycharmProjects/my_inv_mgr/01_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACAE6BF-9CAC-814B-A2D4-CC0E1B6C6EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B5CFF-A376-D040-A6AE-6B8E1371E1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="1" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21260" activeTab="6" xr2:uid="{86CA5C0F-90BD-7E41-B7E3-88EA8E09F9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -886,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -971,11 +971,19 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1775,9 +1783,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly_Report!$J$27:$J$46</c:f>
+              <c:f>Monthly_Report!$J$27:$J$47</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2019/3/1</c:v>
                 </c:pt>
@@ -1838,15 +1846,18 @@
                 <c:pt idx="19">
                   <c:v>2021/3/1</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021/4/1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly_Report!$K$27:$K$46</c:f>
+              <c:f>Monthly_Report!$K$27:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4520157.8100000005</c:v>
                 </c:pt>
@@ -1906,6 +1917,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9761430.0329999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10234051.030000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,13 +2734,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wang, Laye" refreshedDate="44287.51008148148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="165" xr:uid="{83AE538F-4CE2-684A-8523-E2463298BAB7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44317.861410879632" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="199" xr:uid="{83AE538F-4CE2-684A-8523-E2463298BAB7}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="期间" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-03-02T00:00:00" count="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2021-04-02T00:00:00" count="21">
         <d v="2019-03-01T00:00:00"/>
         <d v="2019-04-01T00:00:00"/>
         <d v="2019-05-01T00:00:00"/>
@@ -2747,10 +2761,11 @@
         <d v="2021-01-01T00:00:00"/>
         <d v="2021-02-01T00:00:00"/>
         <d v="2021-03-01T00:00:00"/>
+        <d v="2021-04-01T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="记录日期" numFmtId="14">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2021-04-30T00:00:00" maxDate="2021-05-01T00:00:00"/>
     </cacheField>
     <cacheField name="项目" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2804,7 +2819,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="165">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="199">
   <r>
     <x v="0"/>
     <m/>
@@ -4455,15 +4470,355 @@
     <x v="3"/>
     <n v="1000000"/>
   </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="富国中证红利指数增强A"/>
+    <s v="100032"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="556266.59"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="中欧医疗健康混合A"/>
+    <s v="003095"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="393181.71"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="创成长"/>
+    <s v="SZ159967"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="343166.9"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="中欧价值发现混合A"/>
+    <s v="166005"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="307670.08"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="广发中证全指金融地产联接A"/>
+    <s v="001469"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="293096.96999999997"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="传媒ETF"/>
+    <s v="SH512980"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="289156"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="汇添富价值精选混合A"/>
+    <s v="519069"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="254958.98"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="广发中证环保ETF联接A"/>
+    <s v="001064"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="209573.95"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="易方达消费行业股票"/>
+    <s v="110022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="147011.35"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="大成中证红利指数A"/>
+    <s v="090010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="136024.48000000001"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="申万菱信沪深300指数增强A"/>
+    <s v="310318"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="98930.59"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="广发养老指数A"/>
+    <s v="000968"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="89891.39"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="易方达证券公司(LOF)"/>
+    <s v="502010"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="66686.16"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="易方达蓝筹精选混合"/>
+    <s v="005827"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="60186.720000000001"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="华安德国30(DAX)联接"/>
+    <s v="000614"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="16243.61"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="鹏扬泓利债券C"/>
+    <s v="006060"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12111.7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="东方红策略精选混合C"/>
+    <s v="001406"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12107"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="广发趋势优选灵活配置混合C"/>
+    <s v="008127"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12059.19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="工银瑞信双利债券B"/>
+    <s v="485011"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="12011.04"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="南方安裕混合C"/>
+    <s v="006586"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="8014.18"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="南方宝元债券C"/>
+    <s v="006585"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="4000.34"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="余额宝/微信"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="37933.74"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="华泰证券-现金余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="228.8"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="招行-货币基金/招行余额"/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="424081.83"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="香港AIA保险"/>
+    <m/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="80000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="中信信托100万"/>
+    <m/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1000000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="SAP德国股票-OwnSAP"/>
+    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="275944.84000000003"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="招商股票+现金"/>
+    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="稳稳的幸福"/>
+    <m/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="20071.12"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="白鹭量化CTA一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1013916.5"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="幻方量化专享71号1期"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1087500"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="进化论复合策略一号"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="951654.76"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="白鹭群贤二号量化多策略"/>
+    <m/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1017770.59"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2021-04-30T00:00:00"/>
+    <s v="希瓦小牛45号"/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="999599.92"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J13:R21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="21">
+      <items count="22">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -4483,142 +4838,8 @@
         <item h="1" x="16"/>
         <item h="1" x="17"/>
         <item h="1" x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="10">
-        <item x="8"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BCBCDD7-E82B-B142-A42C-817E2C3E2720}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="J3:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="21">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item x="19"/>
+        <item h="1" x="19"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4685,12 +4906,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="J26:K46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEA9D17-2B9D-554E-936B-B476BDCEF7C1}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="J26:K47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
+      <items count="22">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4711,6 +4932,7 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4725,7 +4947,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -4786,6 +5008,9 @@
     <i>
       <x v="19"/>
     </i>
+    <i>
+      <x v="20"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -4794,7 +5019,7 @@
     <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -4834,21 +5059,160 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E6270F2-D762-3E47-BE25-82A2935D0912}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J13:S21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="22">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of 现值" fld="7" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="demo3_2" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G54" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3867D15D-F0A6-3144-A6F2-5E33F2179224}" name="Table3" displayName="Table3" ref="A1:G54" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:G54" xr:uid="{EFD34260-A02A-FB46-B08A-10B33E9F197D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{92E38D14-BF52-C642-9F75-C8652FEC0515}" name="inv_place" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DD7A772A-150A-7947-A63C-B30F7D0227E9}" name="type_1" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{07F03570-52F6-FF4D-A6D0-3161A14324F7}" name="type_2" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{30719090-2786-8B4D-A901-631C4CE05490}" name="type_3" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A385F69F-7FE4-0F41-8604-C66005FB4A9D}" name="Validation" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{939C74AE-9F5B-5A46-851D-88AAB79145FC}" name="name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B1F7BD77-C3C2-AB4A-93A2-1C1403329E31}" name="code" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{92E38D14-BF52-C642-9F75-C8652FEC0515}" name="inv_place" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{DD7A772A-150A-7947-A63C-B30F7D0227E9}" name="type_1" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{07F03570-52F6-FF4D-A6D0-3161A14324F7}" name="type_2" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{30719090-2786-8B4D-A901-631C4CE05490}" name="type_3" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A385F69F-7FE4-0F41-8604-C66005FB4A9D}" name="Validation" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4861,24 +5225,24 @@
     <tableColumn id="1" xr3:uid="{CD2B98C9-817A-F64F-B185-2C042E9F8C23}" name="投资日期"/>
     <tableColumn id="2" xr3:uid="{5B9C0C9F-5C23-334B-8C83-0249BF611D4C}" name="投资项目"/>
     <tableColumn id="3" xr3:uid="{3B551F34-8F89-764C-8382-CDD9980DE3FB}" name="投资地点"/>
-    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8D451B51-3D19-D14D-9839-F22DDB123B11}" name="投资金额" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB178CD9-13EA-5F4A-9541-3C68090E1B4F}" name="Table1" displayName="Table1" ref="A1:H166" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H166" xr:uid="{76A8188B-0F35-DE44-869A-2517FA0C2E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB178CD9-13EA-5F4A-9541-3C68090E1B4F}" name="Table1" displayName="Table1" ref="A1:H200" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:H200" xr:uid="{76A8188B-0F35-DE44-869A-2517FA0C2E4E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{057C22B4-32F8-CE44-B02A-7DF58F24A648}" name="期间" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{002FC1F9-690A-364C-B17E-067C53A1AC0C}" name="记录日期" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8B27A95E-CD9B-B64F-AE13-76B27A4F078C}" name="项目" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{03DBB180-131A-984F-AD39-195F9F875F60}" name="代码" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{52296DBD-24D7-304A-B216-1D4C57D78B8F}" name="分类1" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{1C39B077-C593-DC43-8BB1-B3ADD219E54B}" name="分类2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0B448DCA-370A-C740-A64D-492EDD6CC313}" name="分类3" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{D066B927-3C85-0744-BD6D-4E343619BBC2}" name="现值"/>
+    <tableColumn id="1" xr3:uid="{057C22B4-32F8-CE44-B02A-7DF58F24A648}" name="期间" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{002FC1F9-690A-364C-B17E-067C53A1AC0C}" name="记录日期" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8B27A95E-CD9B-B64F-AE13-76B27A4F078C}" name="项目" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{03DBB180-131A-984F-AD39-195F9F875F60}" name="代码" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{52296DBD-24D7-304A-B216-1D4C57D78B8F}" name="分类1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1C39B077-C593-DC43-8BB1-B3ADD219E54B}" name="分类2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0B448DCA-370A-C740-A64D-492EDD6CC313}" name="分类3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D066B927-3C85-0744-BD6D-4E343619BBC2}" name="现值" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5183,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94F25D4-1D66-484B-8DF3-4CB5CDA02AC6}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5832,7 +6196,7 @@
       <c r="E29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="24" t="s">
@@ -6020,7 +6384,7 @@
         <v>149</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -6396,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B468B3E-BC1C-4D40-A004-CBFEDA1CF410}">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="Q42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9011,10 +9375,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E803370-CA49-7242-BF7A-4954EC003BE6}">
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K46"/>
+    <sheetView showGridLines="0" topLeftCell="F23" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:S15"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="7" activeRow="14" activeCol="9" previousRow="14" previousCol="9" click="1" r:id="rId3">
+        <pivotArea dataOnly="0" axis="axisRow" fieldPosition="0">
+          <references count="1">
+            <reference field="5" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9028,19 +9401,20 @@
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>99</v>
       </c>
@@ -9069,10 +9443,10 @@
         <v>99</v>
       </c>
       <c r="K1" s="54">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>43525</v>
       </c>
@@ -9086,7 +9460,7 @@
         <v>4520157.8100000005</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>43556</v>
       </c>
@@ -9109,7 +9483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>43586</v>
       </c>
@@ -9126,14 +9500,14 @@
         <v>149</v>
       </c>
       <c r="K4" s="8">
-        <v>2175851.9000000004</v>
+        <v>3313419.0700000003</v>
       </c>
       <c r="L4" s="15">
-        <v>0.22290298579656892</v>
+        <v>0.32376417317903483</v>
       </c>
       <c r="M4" s="58"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>43647</v>
       </c>
@@ -9150,14 +9524,14 @@
         <v>174</v>
       </c>
       <c r="K5" s="8">
-        <v>4161035.3630000008</v>
+        <v>3930250.87</v>
       </c>
       <c r="L5" s="15">
-        <v>0.42627313302794645</v>
+        <v>0.38403666920156049</v>
       </c>
       <c r="M5" s="58"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>43678</v>
       </c>
@@ -9174,14 +9548,14 @@
         <v>129</v>
       </c>
       <c r="K6" s="8">
-        <v>3424542.7699999996</v>
+        <v>2990381.09</v>
       </c>
       <c r="L6" s="15">
-        <v>0.35082388117548469</v>
+        <v>0.29219915761940457</v>
       </c>
       <c r="M6" s="58"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <v>43739</v>
       </c>
@@ -9198,13 +9572,13 @@
         <v>185</v>
       </c>
       <c r="K7" s="8">
-        <v>9761430.0329999998</v>
+        <v>10234051.030000001</v>
       </c>
       <c r="L7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>43770</v>
       </c>
@@ -9218,7 +9592,7 @@
         <v>5137453.5599999996</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>43800</v>
       </c>
@@ -9232,7 +9606,7 @@
         <v>5501908.3899999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>43831</v>
       </c>
@@ -9246,7 +9620,7 @@
         <v>5235010.3900000006</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>43862</v>
       </c>
@@ -9263,10 +9637,10 @@
         <v>99</v>
       </c>
       <c r="K11" s="54">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>43922</v>
       </c>
@@ -9280,7 +9654,7 @@
         <v>6395014.0300000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>43952</v>
       </c>
@@ -9300,7 +9674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>43983</v>
       </c>
@@ -9338,10 +9712,13 @@
         <v>71</v>
       </c>
       <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>44013</v>
       </c>
@@ -9360,23 +9737,26 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8">
-        <v>2935986.6500000004</v>
+        <v>2613478.9699999997</v>
       </c>
       <c r="N15" s="8">
-        <v>615813.39999999991</v>
+        <v>289156</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8">
-        <v>1935921.15</v>
+        <v>3038754.68</v>
       </c>
       <c r="Q15" s="8">
         <v>3000</v>
       </c>
       <c r="R15" s="8">
-        <v>5490721.2000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>343166.9</v>
+      </c>
+      <c r="S15" s="8">
+        <v>6287556.5500000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>44044</v>
       </c>
@@ -9393,20 +9773,21 @@
         <v>75</v>
       </c>
       <c r="K16" s="8">
-        <v>19931.63</v>
+        <v>20071.12</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8">
-        <v>60114.460000000006</v>
+        <v>60303.45</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8">
-        <v>2023856.85</v>
+        <v>2031687.0899999999</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="R16" s="8">
-        <v>2103902.94</v>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8">
+        <v>2112061.6599999997</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -9427,15 +9808,16 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8">
-        <v>742156.84000000008</v>
+        <v>462244.37</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="8">
-        <v>742156.84000000008</v>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8">
+        <v>462244.37</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -9475,7 +9857,8 @@
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="8">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8">
         <v>80000</v>
       </c>
     </row>
@@ -9510,18 +9893,17 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
-        <v>15907.07</v>
-      </c>
-      <c r="N19" s="8">
-        <v>93766.399999999994</v>
-      </c>
+        <v>16243.61</v>
+      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8">
-        <v>234975.58300000001</v>
-      </c>
-      <c r="R19" s="8">
-        <v>344649.05300000001</v>
+        <v>275944.84000000003</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8">
+        <v>292188.45</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -9561,7 +9943,8 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="8">
+      <c r="R20" s="8"/>
+      <c r="S20" s="8">
         <v>1000000</v>
       </c>
     </row>
@@ -9594,30 +9977,32 @@
         <v>185</v>
       </c>
       <c r="K21" s="8">
-        <v>19931.63</v>
+        <v>20071.12</v>
       </c>
       <c r="L21" s="8">
-        <v>1742156.84</v>
+        <v>1462244.37</v>
       </c>
       <c r="M21" s="8">
-        <v>3012008.18</v>
+        <v>2690026.03</v>
       </c>
       <c r="N21" s="8">
-        <v>709579.79999999993</v>
+        <v>289156</v>
       </c>
       <c r="O21" s="8">
         <v>80000</v>
       </c>
       <c r="P21" s="8">
-        <v>3959778</v>
+        <v>5070441.7699999996</v>
       </c>
       <c r="Q21" s="8">
-        <v>237975.58300000001</v>
+        <v>278944.84000000003</v>
       </c>
       <c r="R21" s="8">
-        <v>9761430.0329999998</v>
-      </c>
-      <c r="S21" s="58"/>
+        <v>343166.9</v>
+      </c>
+      <c r="S21" s="8">
+        <v>10234051.029999999</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
@@ -10412,6 +10797,12 @@
       <c r="H47" s="40">
         <v>1000000</v>
       </c>
+      <c r="J47" s="55">
+        <v>44287</v>
+      </c>
+      <c r="K47" s="8">
+        <v>10234051.030000001</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
@@ -10437,7 +10828,7 @@
         <v>503080</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>44166</v>
       </c>
@@ -10461,7 +10852,7 @@
         <v>221172.2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>44166</v>
       </c>
@@ -10484,8 +10875,9 @@
       <c r="H50" s="29">
         <v>5000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="38">
         <v>44166</v>
       </c>
@@ -10509,7 +10901,7 @@
         <v>249392.02</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>44197</v>
       </c>
@@ -10535,7 +10927,7 @@
         <v>764948.44</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="38">
         <v>44197</v>
       </c>
@@ -10561,7 +10953,7 @@
         <v>690141.59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>44197</v>
       </c>
@@ -10587,7 +10979,7 @@
         <v>652833.63</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="38">
         <v>44197</v>
       </c>
@@ -10613,7 +11005,7 @@
         <v>640514.89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>44197</v>
       </c>
@@ -10639,7 +11031,7 @@
         <v>458172.68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="38">
         <v>44197</v>
       </c>
@@ -10665,7 +11057,7 @@
         <v>365831.69</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>44197</v>
       </c>
@@ -10691,7 +11083,7 @@
         <v>356863.51</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="38">
         <v>44197</v>
       </c>
@@ -10717,7 +11109,7 @@
         <v>344782.2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>44197</v>
       </c>
@@ -10743,7 +11135,7 @@
         <v>313940.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="38">
         <v>44197</v>
       </c>
@@ -10769,7 +11161,7 @@
         <v>299961.19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>44197</v>
       </c>
@@ -10795,7 +11187,7 @@
         <v>287190.40999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="38">
         <v>44197</v>
       </c>
@@ -10821,7 +11213,7 @@
         <v>272506.53000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>44197</v>
       </c>
@@ -13437,8 +13829,870 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B167" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H167" s="8">
+        <v>556266.59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B168" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C168" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H168" s="8">
+        <v>393181.71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B169" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C169" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H169" s="8">
+        <v>343166.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B170" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C170" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H170" s="8">
+        <v>307670.08</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B171" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C171" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H171" s="8">
+        <v>293096.96999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B172" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C172" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D172" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E172" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H172" s="8">
+        <v>289156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B173" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C173" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D173" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H173" s="8">
+        <v>254958.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B174" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C174" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H174" s="8">
+        <v>209573.95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B175" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C175" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H175" s="8">
+        <v>147011.35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B176" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C176" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E176" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H176" s="8">
+        <v>136024.48000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B177" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C177" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H177" s="8">
+        <v>98930.59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B178" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C178" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H178" s="8">
+        <v>89891.39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B179" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C179" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D179" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E179" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H179" s="8">
+        <v>66686.16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B180" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D180" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H180" s="8">
+        <v>60186.720000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B181" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C181" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H181" s="8">
+        <v>16243.61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B182" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C182" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D182" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E182" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G182" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H182" s="8">
+        <v>12111.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B183" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C183" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E183" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G183" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="8">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B184" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C184" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D184" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G184" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H184" s="8">
+        <v>12059.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B185" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C185" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D185" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E185" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G185" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H185" s="8">
+        <v>12011.04</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B186" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C186" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D186" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E186" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G186" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H186" s="8">
+        <v>8014.18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B187" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C187" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D187" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E187" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G187" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H187" s="8">
+        <v>4000.34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B188" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C188" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" s="67"/>
+      <c r="E188" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G188" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H188" s="8">
+        <f>25434.21+12499.53</f>
+        <v>37933.74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B189" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C189" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="67"/>
+      <c r="E189" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G189" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H189" s="8">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B190" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C190" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" s="67"/>
+      <c r="E190" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G190" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H190" s="8">
+        <f>200219.38+189011+34851.45</f>
+        <v>424081.83</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B191" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C191" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="67"/>
+      <c r="E191" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F191" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="G191" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H191" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B192" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C192" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D192" s="67"/>
+      <c r="E192" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G192" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H192" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B193" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C193" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193" s="67"/>
+      <c r="E193" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F193" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H193" s="8">
+        <v>275944.84000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B194" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C194" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D194" s="67"/>
+      <c r="E194" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F194" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H194" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B195" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C195" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195" s="67"/>
+      <c r="E195" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F195" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G195" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H195" s="8">
+        <v>20071.12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B196" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C196" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D196" s="67"/>
+      <c r="E196" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G196" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H196" s="8">
+        <v>1013916.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B197" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C197" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D197" s="67"/>
+      <c r="E197" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H197" s="8">
+        <v>1087500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B198" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C198" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D198" s="67"/>
+      <c r="E198" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F198" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H198" s="8">
+        <v>951654.76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B199" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C199" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" s="67"/>
+      <c r="E199" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G199" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H199" s="8">
+        <v>1017770.59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B200" s="34">
+        <v>44316</v>
+      </c>
+      <c r="C200" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D200" s="67"/>
+      <c r="E200" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F200" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H200" s="8">
+        <v>999599.92</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId4"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
@@ -13450,7 +14704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AA8A7-8AF9-314E-AF32-52CEAC1BA888}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
@@ -14065,8 +15319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA54A02-67A8-E94E-BEFE-220CFC4B527E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14095,10 +15349,10 @@
         <v>44316</v>
       </c>
       <c r="K1" s="15">
-        <v>0.19216359084894719</v>
+        <v>0.18189560276445071</v>
       </c>
       <c r="L1" s="15">
-        <v>0.14910000000000001</v>
+        <v>0.13917626421639406</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -14109,18 +15363,18 @@
         <v>44316</v>
       </c>
       <c r="C2" s="8">
-        <v>10000000</v>
+        <v>10234000</v>
       </c>
       <c r="E2" s="60" t="s">
         <v>194</v>
       </c>
       <c r="F2" s="63">
         <f>C3-C2</f>
-        <v>6000000</v>
+        <v>5766000</v>
       </c>
       <c r="G2" s="63">
         <f>F2-1500000</f>
-        <v>4500000</v>
+        <v>4266000</v>
       </c>
       <c r="H2" t="s">
         <v>195</v>
@@ -14141,11 +15395,11 @@
       </c>
       <c r="F3" s="65">
         <f>F2/C2</f>
-        <v>0.6</v>
+        <v>0.56341606410005862</v>
       </c>
       <c r="G3" s="65">
         <f>G2/C2</f>
-        <v>0.45</v>
+        <v>0.41684580809067812</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -14154,11 +15408,11 @@
       </c>
       <c r="F4" s="65">
         <f>(1+F$3)^(1/$F$1*365)-1</f>
-        <v>0.19216359084894719</v>
+        <v>0.18189560276445071</v>
       </c>
       <c r="G4" s="65">
         <f>(1+G$3)^(1/$F$1*365)-1</f>
-        <v>0.14907311828688519</v>
+        <v>0.13917626421639406</v>
       </c>
     </row>
   </sheetData>
